--- a/analysen/choropleth_FDP.xlsx
+++ b/analysen/choropleth_FDP.xlsx
@@ -2933,10 +2933,10 @@
         <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>4.97152037388637</v>
+        <v>4.95899072010256</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.79150749715886</v>
+        <v>-1.80403715094267</v>
       </c>
     </row>
     <row r="3">
@@ -2956,10 +2956,10 @@
         <v>9</v>
       </c>
       <c r="F3" t="n">
-        <v>6.40949088623507</v>
+        <v>6.39386790604353</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.68092501340613</v>
+        <v>-1.69654799359767</v>
       </c>
     </row>
     <row r="4">
@@ -2979,10 +2979,10 @@
         <v>9</v>
       </c>
       <c r="F4" t="n">
-        <v>4.61312644160201</v>
+        <v>4.59989844380059</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.87239880748923</v>
+        <v>-1.88562680529065</v>
       </c>
     </row>
     <row r="5">
@@ -3002,10 +3002,10 @@
         <v>9</v>
       </c>
       <c r="F5" t="n">
-        <v>6.52554667044088</v>
+        <v>6.50225203388187</v>
       </c>
       <c r="G5" t="n">
-        <v>-2.25487982417557</v>
+        <v>-2.27817446073458</v>
       </c>
     </row>
     <row r="6">
@@ -3025,10 +3025,10 @@
         <v>9</v>
       </c>
       <c r="F6" t="n">
-        <v>3.92107324221217</v>
+        <v>3.90302786439996</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.79102205766399</v>
+        <v>-1.8090674354762</v>
       </c>
     </row>
     <row r="7">
@@ -3048,10 +3048,10 @@
         <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>4.23892100192678</v>
+        <v>4.28849902534113</v>
       </c>
       <c r="G7" t="n">
-        <v>-3.51107899807322</v>
+        <v>-3.46150097465887</v>
       </c>
     </row>
     <row r="8">
@@ -3071,10 +3071,10 @@
         <v>9</v>
       </c>
       <c r="F8" t="n">
-        <v>3.47155255544841</v>
+        <v>3.47994200096665</v>
       </c>
       <c r="G8" t="n">
-        <v>-2.64892937226243</v>
+        <v>-2.64053992674419</v>
       </c>
     </row>
     <row r="9">
@@ -3094,10 +3094,10 @@
         <v>9</v>
       </c>
       <c r="F9" t="n">
-        <v>3.20815717483213</v>
+        <v>3.20099255583127</v>
       </c>
       <c r="G9" t="n">
-        <v>-3.3855109994121</v>
+        <v>-3.39267561841296</v>
       </c>
     </row>
     <row r="10">
@@ -3117,10 +3117,10 @@
         <v>9</v>
       </c>
       <c r="F10" t="n">
-        <v>3.80586592178771</v>
+        <v>3.78340853870184</v>
       </c>
       <c r="G10" t="n">
-        <v>-2.17849313975598</v>
+        <v>-2.20095052284185</v>
       </c>
     </row>
     <row r="11">
@@ -3140,10 +3140,10 @@
         <v>9</v>
       </c>
       <c r="F11" t="n">
-        <v>4.15774992357077</v>
+        <v>4.15013732072017</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.93751801751353</v>
+        <v>-1.94513062036413</v>
       </c>
     </row>
     <row r="12">
@@ -3163,10 +3163,10 @@
         <v>9</v>
       </c>
       <c r="F12" t="n">
-        <v>3.085600530856</v>
+        <v>3.0794701986755</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.94777559237891</v>
+        <v>-2.95390592455942</v>
       </c>
     </row>
     <row r="13">
@@ -3186,10 +3186,10 @@
         <v>9</v>
       </c>
       <c r="F13" t="n">
-        <v>4.5135406218656</v>
+        <v>4.50600801068091</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.6838322309468</v>
+        <v>-1.69136484213149</v>
       </c>
     </row>
     <row r="14">
@@ -3209,10 +3209,10 @@
         <v>9</v>
       </c>
       <c r="F14" t="n">
-        <v>3.32588038010061</v>
+        <v>3.32309410779112</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.92608250355392</v>
+        <v>-3.92886877586341</v>
       </c>
     </row>
     <row r="15">
@@ -3278,10 +3278,10 @@
         <v>9</v>
       </c>
       <c r="F17" t="n">
-        <v>3.39805825242718</v>
+        <v>3.38312829525483</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.78164940019534</v>
+        <v>-3.79657935736769</v>
       </c>
     </row>
     <row r="18">
@@ -3301,10 +3301,10 @@
         <v>9</v>
       </c>
       <c r="F18" t="n">
-        <v>2.95708618824378</v>
+        <v>2.96242774566474</v>
       </c>
       <c r="G18" t="n">
-        <v>-3.56148628080211</v>
+        <v>-3.55614472338114</v>
       </c>
     </row>
     <row r="19">
@@ -3324,10 +3324,10 @@
         <v>9</v>
       </c>
       <c r="F19" t="n">
-        <v>3.1048906048906</v>
+        <v>3.10089974293059</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.40564803679558</v>
+        <v>-3.40963889875559</v>
       </c>
     </row>
     <row r="20">
@@ -3347,10 +3347,10 @@
         <v>9</v>
       </c>
       <c r="F20" t="n">
-        <v>4.35741864313293</v>
+        <v>4.3382756727073</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.39237804973777</v>
+        <v>-2.41152102016339</v>
       </c>
     </row>
     <row r="21">
@@ -3370,10 +3370,10 @@
         <v>9</v>
       </c>
       <c r="F21" t="n">
-        <v>4.66132556445739</v>
+        <v>4.6664236237696</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.94997463976317</v>
+        <v>-3.94487658045096</v>
       </c>
     </row>
     <row r="22">
@@ -3393,10 +3393,10 @@
         <v>9</v>
       </c>
       <c r="F22" t="n">
-        <v>3.82987727465087</v>
+        <v>3.81373788453435</v>
       </c>
       <c r="G22" t="n">
-        <v>-2.84376289271315</v>
+        <v>-2.85990228282967</v>
       </c>
     </row>
     <row r="23">
@@ -3416,10 +3416,10 @@
         <v>9</v>
       </c>
       <c r="F23" t="n">
-        <v>4.29397804805696</v>
+        <v>4.28032823242404</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.748531479940698</v>
+        <v>-0.762181295573613</v>
       </c>
     </row>
     <row r="24">
@@ -3439,10 +3439,10 @@
         <v>9</v>
       </c>
       <c r="F24" t="n">
-        <v>3.92798690671031</v>
+        <v>3.91676866585067</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.17858641106487</v>
+        <v>-2.18980465192451</v>
       </c>
     </row>
     <row r="25">
@@ -3462,10 +3462,10 @@
         <v>9</v>
       </c>
       <c r="F25" t="n">
-        <v>4.02812362677604</v>
+        <v>4.02340892465252</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.59562458495501</v>
+        <v>-2.60033928707852</v>
       </c>
     </row>
     <row r="26">
@@ -3485,10 +3485,10 @@
         <v>9</v>
       </c>
       <c r="F26" t="n">
-        <v>3.86882272933353</v>
+        <v>3.86007237635706</v>
       </c>
       <c r="G26" t="n">
-        <v>-2.52496275020038</v>
+        <v>-2.53371310317686</v>
       </c>
     </row>
     <row r="27">
@@ -3508,10 +3508,10 @@
         <v>9</v>
       </c>
       <c r="F27" t="n">
-        <v>4.10814606741573</v>
+        <v>4.1031036296686</v>
       </c>
       <c r="G27" t="n">
-        <v>-2.08540231968104</v>
+        <v>-2.09044475742818</v>
       </c>
     </row>
     <row r="28">
@@ -3531,10 +3531,10 @@
         <v>9</v>
       </c>
       <c r="F28" t="n">
-        <v>3.49060222477944</v>
+        <v>3.49194167306216</v>
       </c>
       <c r="G28" t="n">
-        <v>-2.33068068215419</v>
+        <v>-2.32934123387147</v>
       </c>
     </row>
     <row r="29">
@@ -3554,10 +3554,10 @@
         <v>9</v>
       </c>
       <c r="F29" t="n">
-        <v>4.32769942943266</v>
+        <v>4.31793770139635</v>
       </c>
       <c r="G29" t="n">
-        <v>-2.14251869137271</v>
+        <v>-2.15228041940902</v>
       </c>
     </row>
     <row r="30">
@@ -3577,10 +3577,10 @@
         <v>9</v>
       </c>
       <c r="F30" t="n">
-        <v>3.95061728395062</v>
+        <v>3.93396557780119</v>
       </c>
       <c r="G30" t="n">
-        <v>-2.66416870826728</v>
+        <v>-2.68082041441671</v>
       </c>
     </row>
     <row r="31">
@@ -3600,10 +3600,10 @@
         <v>9</v>
       </c>
       <c r="F31" t="n">
-        <v>4.46147529765978</v>
+        <v>4.44868995633188</v>
       </c>
       <c r="G31" t="n">
-        <v>-2.76215114906099</v>
+        <v>-2.77493649038889</v>
       </c>
     </row>
     <row r="32">
@@ -3623,10 +3623,10 @@
         <v>9</v>
       </c>
       <c r="F32" t="n">
-        <v>8.70673952641166</v>
+        <v>8.70040043684019</v>
       </c>
       <c r="G32" t="n">
-        <v>-2.89710378474873</v>
+        <v>-2.9034428743202</v>
       </c>
     </row>
     <row r="33">
@@ -3646,10 +3646,10 @@
         <v>9</v>
       </c>
       <c r="F33" t="n">
-        <v>4.13793103448276</v>
+        <v>4.13159908186687</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.12328060989175</v>
+        <v>-4.12961256250764</v>
       </c>
     </row>
     <row r="34">
@@ -3669,10 +3669,10 @@
         <v>9</v>
       </c>
       <c r="F34" t="n">
-        <v>5.07927976350443</v>
+        <v>5.06024096385542</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.51412682990216</v>
+        <v>-1.53316562955117</v>
       </c>
     </row>
     <row r="35">
@@ -3692,10 +3692,10 @@
         <v>9</v>
       </c>
       <c r="F35" t="n">
-        <v>5.18391461787688</v>
+        <v>5.16864608076009</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.13161791176345</v>
+        <v>-4.14688644888024</v>
       </c>
     </row>
     <row r="36">
@@ -3715,10 +3715,10 @@
         <v>9</v>
       </c>
       <c r="F36" t="n">
-        <v>6.98995194408038</v>
+        <v>6.95652173913043</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.7637793992032</v>
+        <v>-4.79720960415315</v>
       </c>
     </row>
     <row r="37">
@@ -3761,10 +3761,10 @@
         <v>9</v>
       </c>
       <c r="F38" t="n">
-        <v>4.32926829268293</v>
+        <v>4.30042398546336</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.59934634736547</v>
+        <v>-1.62819065458504</v>
       </c>
     </row>
     <row r="39">
@@ -3784,10 +3784,10 @@
         <v>9</v>
       </c>
       <c r="F39" t="n">
-        <v>5.30951182687469</v>
+        <v>5.31218529707956</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.28085269007663</v>
+        <v>-3.27817921987176</v>
       </c>
     </row>
     <row r="40">
@@ -3807,10 +3807,10 @@
         <v>9</v>
       </c>
       <c r="F40" t="n">
-        <v>7.49915167967424</v>
+        <v>7.48644986449865</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.46403850437484</v>
+        <v>-4.47674031955043</v>
       </c>
     </row>
     <row r="41">
@@ -3830,10 +3830,10 @@
         <v>9</v>
       </c>
       <c r="F41" t="n">
-        <v>3.27342747111682</v>
+        <v>3.26170376055257</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.69286771779321</v>
+        <v>-2.70459142835746</v>
       </c>
     </row>
     <row r="42">
@@ -3853,10 +3853,10 @@
         <v>9</v>
       </c>
       <c r="F42" t="n">
-        <v>4.27350427350427</v>
+        <v>4.25894378194208</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.97587435118504</v>
+        <v>-2.99043484274723</v>
       </c>
     </row>
     <row r="43">
@@ -3899,10 +3899,10 @@
         <v>9</v>
       </c>
       <c r="F44" t="n">
-        <v>5.61353004677942</v>
+        <v>5.60344827586207</v>
       </c>
       <c r="G44" t="n">
-        <v>-1.58616680808985</v>
+        <v>-1.5962485790072</v>
       </c>
     </row>
     <row r="45">
@@ -3922,10 +3922,10 @@
         <v>9</v>
       </c>
       <c r="F45" t="n">
-        <v>4.07558354946276</v>
+        <v>4.08011869436202</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.24479422024301</v>
+        <v>-2.24025907534376</v>
       </c>
     </row>
     <row r="46">
@@ -3945,10 +3945,10 @@
         <v>9</v>
       </c>
       <c r="F46" t="n">
-        <v>5.93272171253823</v>
+        <v>5.92909535452323</v>
       </c>
       <c r="G46" t="n">
-        <v>-1.68571618758981</v>
+        <v>-1.68934254560481</v>
       </c>
     </row>
     <row r="47">
@@ -3968,10 +3968,10 @@
         <v>9</v>
       </c>
       <c r="F47" t="n">
-        <v>4.59189530478705</v>
+        <v>4.60935699469924</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.18898405306607</v>
+        <v>-2.17152236315388</v>
       </c>
     </row>
     <row r="48">
@@ -3991,10 +3991,10 @@
         <v>9</v>
       </c>
       <c r="F48" t="n">
-        <v>4.74393530997305</v>
+        <v>4.72610096670247</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.9173550126076</v>
+        <v>-2.93518935587817</v>
       </c>
     </row>
     <row r="49">
@@ -4014,10 +4014,10 @@
         <v>9</v>
       </c>
       <c r="F49" t="n">
-        <v>3.94666666666667</v>
+        <v>3.9572192513369</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.32762539330002</v>
+        <v>-2.31707280862979</v>
       </c>
     </row>
     <row r="50">
@@ -4083,10 +4083,10 @@
         <v>9</v>
       </c>
       <c r="F52" t="n">
-        <v>5.56433765412583</v>
+        <v>5.56785827269851</v>
       </c>
       <c r="G52" t="n">
-        <v>-3.85736475003271</v>
+        <v>-3.85384413146003</v>
       </c>
     </row>
     <row r="53">
@@ -4106,10 +4106,10 @@
         <v>9</v>
       </c>
       <c r="F53" t="n">
-        <v>4.13419179939004</v>
+        <v>4.1049798115747</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.25880954650498</v>
+        <v>-2.28802153432032</v>
       </c>
     </row>
     <row r="54">
@@ -4129,10 +4129,10 @@
         <v>9</v>
       </c>
       <c r="F54" t="n">
-        <v>3.5279805352798</v>
+        <v>3.51515151515151</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.43992317585359</v>
+        <v>-2.45275219598189</v>
       </c>
     </row>
     <row r="55">
@@ -4152,10 +4152,10 @@
         <v>9</v>
       </c>
       <c r="F55" t="n">
-        <v>3.51377018043685</v>
+        <v>3.49964530621896</v>
       </c>
       <c r="G55" t="n">
-        <v>-1.93285291324507</v>
+        <v>-1.94697778746295</v>
       </c>
     </row>
     <row r="56">
@@ -4175,10 +4175,10 @@
         <v>9</v>
       </c>
       <c r="F56" t="n">
-        <v>4.62946664319662</v>
+        <v>4.62702322308234</v>
       </c>
       <c r="G56" t="n">
-        <v>-2.16511177609576</v>
+        <v>-2.16755519621004</v>
       </c>
     </row>
     <row r="57">
@@ -4198,10 +4198,10 @@
         <v>9</v>
       </c>
       <c r="F57" t="n">
-        <v>4.50204638472033</v>
+        <v>4.48543689320388</v>
       </c>
       <c r="G57" t="n">
-        <v>-1.71901260460925</v>
+        <v>-1.73562209612569</v>
       </c>
     </row>
     <row r="58">
@@ -4221,10 +4221,10 @@
         <v>9</v>
       </c>
       <c r="F58" t="n">
-        <v>4.45576066199873</v>
+        <v>4.44021566761814</v>
       </c>
       <c r="G58" t="n">
-        <v>-2.26398456093121</v>
+        <v>-2.27952955531179</v>
       </c>
     </row>
     <row r="59">
@@ -4244,10 +4244,10 @@
         <v>9</v>
       </c>
       <c r="F59" t="n">
-        <v>4.77741585233442</v>
+        <v>4.76448294531673</v>
       </c>
       <c r="G59" t="n">
-        <v>-1.79776996813442</v>
+        <v>-1.81070287515211</v>
       </c>
     </row>
     <row r="60">
@@ -4290,10 +4290,10 @@
         <v>9</v>
       </c>
       <c r="F61" t="n">
-        <v>7.76998597475456</v>
+        <v>7.76562938043173</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.629035498471861</v>
+        <v>-0.633392092794686</v>
       </c>
     </row>
     <row r="62">
@@ -4313,10 +4313,10 @@
         <v>9</v>
       </c>
       <c r="F62" t="n">
-        <v>8.68167202572347</v>
+        <v>8.61702127659574</v>
       </c>
       <c r="G62" t="n">
-        <v>-1.52131942726798</v>
+        <v>-1.58597017639571</v>
       </c>
     </row>
     <row r="63">
@@ -4336,10 +4336,10 @@
         <v>9</v>
       </c>
       <c r="F63" t="n">
-        <v>3.77777777777778</v>
+        <v>3.77418331747542</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.933760683760684</v>
+        <v>-0.937355144063042</v>
       </c>
     </row>
     <row r="64">
@@ -4359,10 +4359,10 @@
         <v>9</v>
       </c>
       <c r="F64" t="n">
-        <v>5.04121750158529</v>
+        <v>5.02846299810247</v>
       </c>
       <c r="G64" t="n">
-        <v>-2.95618171818064</v>
+        <v>-2.96893622166346</v>
       </c>
     </row>
     <row r="65">
@@ -4382,10 +4382,10 @@
         <v>9</v>
       </c>
       <c r="F65" t="n">
-        <v>4.14917263521857</v>
+        <v>4.1522491349481</v>
       </c>
       <c r="G65" t="n">
-        <v>-1.32781373659938</v>
+        <v>-1.32473723686985</v>
       </c>
     </row>
     <row r="66">
@@ -4405,10 +4405,10 @@
         <v>9</v>
       </c>
       <c r="F66" t="n">
-        <v>3.59905288082084</v>
+        <v>3.59055118110236</v>
       </c>
       <c r="G66" t="n">
-        <v>-2.01625872942908</v>
+        <v>-2.02476042914756</v>
       </c>
     </row>
     <row r="67">
@@ -4428,10 +4428,10 @@
         <v>9</v>
       </c>
       <c r="F67" t="n">
-        <v>4.6908315565032</v>
+        <v>4.6643109540636</v>
       </c>
       <c r="G67" t="n">
-        <v>-1.99107901260249</v>
+        <v>-2.01759961504209</v>
       </c>
     </row>
     <row r="68">
@@ -4451,10 +4451,10 @@
         <v>9</v>
       </c>
       <c r="F68" t="n">
-        <v>4.39814814814815</v>
+        <v>4.38040345821326</v>
       </c>
       <c r="G68" t="n">
-        <v>-2.89186769971239</v>
+        <v>-2.90961238964728</v>
       </c>
     </row>
     <row r="69">
@@ -4474,10 +4474,10 @@
         <v>9</v>
       </c>
       <c r="F69" t="n">
-        <v>4.8548026805659</v>
+        <v>4.83320978502594</v>
       </c>
       <c r="G69" t="n">
-        <v>-2.31171342903964</v>
+        <v>-2.3333063245796</v>
       </c>
     </row>
     <row r="70">
@@ -4497,10 +4497,10 @@
         <v>9</v>
       </c>
       <c r="F70" t="n">
-        <v>3.89908256880734</v>
+        <v>3.88719512195122</v>
       </c>
       <c r="G70" t="n">
-        <v>-3.66394264127669</v>
+        <v>-3.67583008813281</v>
       </c>
     </row>
     <row r="71">
@@ -4520,10 +4520,10 @@
         <v>9</v>
       </c>
       <c r="F71" t="n">
-        <v>5.18234165067178</v>
+        <v>5.17836593785961</v>
       </c>
       <c r="G71" t="n">
-        <v>-2.21174308154244</v>
+        <v>-2.21571879435462</v>
       </c>
     </row>
     <row r="72">
@@ -4543,10 +4543,10 @@
         <v>9</v>
       </c>
       <c r="F72" t="n">
-        <v>4.87938596491228</v>
+        <v>4.8847420417124</v>
       </c>
       <c r="G72" t="n">
-        <v>-1.20855090092763</v>
+        <v>-1.2031948241275</v>
       </c>
     </row>
     <row r="73">
@@ -4566,10 +4566,10 @@
         <v>9</v>
       </c>
       <c r="F73" t="n">
-        <v>8.06227411731999</v>
+        <v>8.03324099722992</v>
       </c>
       <c r="G73" t="n">
-        <v>-1.52058946779839</v>
+        <v>-1.54962258788846</v>
       </c>
     </row>
     <row r="74">
@@ -4589,10 +4589,10 @@
         <v>9</v>
       </c>
       <c r="F74" t="n">
-        <v>4.74330357142857</v>
+        <v>4.7248471372985</v>
       </c>
       <c r="G74" t="n">
-        <v>-2.66626468994833</v>
+        <v>-2.6847211240784</v>
       </c>
     </row>
     <row r="75">
@@ -4612,10 +4612,10 @@
         <v>9</v>
       </c>
       <c r="F75" t="n">
-        <v>8.21181887950883</v>
+        <v>8.16793893129771</v>
       </c>
       <c r="G75" t="n">
-        <v>0.621546219228795</v>
+        <v>0.577666271017678</v>
       </c>
     </row>
     <row r="76">
@@ -4635,10 +4635,10 @@
         <v>9</v>
       </c>
       <c r="F76" t="n">
-        <v>5.20067834934992</v>
+        <v>5.19187358916479</v>
       </c>
       <c r="G76" t="n">
-        <v>-2.03762900031601</v>
+        <v>-2.04643376050114</v>
       </c>
     </row>
     <row r="77">
@@ -4658,10 +4658,10 @@
         <v>9</v>
       </c>
       <c r="F77" t="n">
-        <v>4.48107731599721</v>
+        <v>4.46862699699004</v>
       </c>
       <c r="G77" t="n">
-        <v>-2.46040574488883</v>
+        <v>-2.472856063896</v>
       </c>
     </row>
     <row r="78">
@@ -4681,10 +4681,10 @@
         <v>9</v>
       </c>
       <c r="F78" t="n">
-        <v>2.8169014084507</v>
+        <v>2.82186948853616</v>
       </c>
       <c r="G78" t="n">
-        <v>-1.70287260284873</v>
+        <v>-1.69790452276328</v>
       </c>
     </row>
     <row r="79">
@@ -4704,10 +4704,10 @@
         <v>9</v>
       </c>
       <c r="F79" t="n">
-        <v>6.30791161796151</v>
+        <v>6.31016042780749</v>
       </c>
       <c r="G79" t="n">
-        <v>-1.84325548096402</v>
+        <v>-1.84100667111804</v>
       </c>
     </row>
     <row r="80">
@@ -4727,10 +4727,10 @@
         <v>9</v>
       </c>
       <c r="F80" t="n">
-        <v>4.73429951690821</v>
+        <v>4.71153846153846</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.17586830145309</v>
+        <v>-2.19862935682284</v>
       </c>
     </row>
     <row r="81">
@@ -4750,10 +4750,10 @@
         <v>9</v>
       </c>
       <c r="F81" t="n">
-        <v>3.1101353823637</v>
+        <v>3.08306129851288</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.12074484851653</v>
+        <v>-2.14781893236735</v>
       </c>
     </row>
     <row r="82">
@@ -4773,10 +4773,10 @@
         <v>9</v>
       </c>
       <c r="F82" t="n">
-        <v>3.4923339011925</v>
+        <v>3.45991561181435</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.440250368470417</v>
+        <v>-0.472668657848574</v>
       </c>
     </row>
     <row r="83">
@@ -4796,10 +4796,10 @@
         <v>9</v>
       </c>
       <c r="F83" t="n">
-        <v>3.48399246704331</v>
+        <v>3.49633829435389</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.46142663627052</v>
+        <v>-2.44908080895995</v>
       </c>
     </row>
     <row r="84">
@@ -4819,10 +4819,10 @@
         <v>9</v>
       </c>
       <c r="F84" t="n">
-        <v>3.99334442595674</v>
+        <v>3.98009950248756</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.85777823746545</v>
+        <v>-1.87102316093463</v>
       </c>
     </row>
     <row r="85">
@@ -4842,10 +4842,10 @@
         <v>9</v>
       </c>
       <c r="F85" t="n">
-        <v>3.861852433281</v>
+        <v>3.85097056981841</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.60379879457103</v>
+        <v>-2.61468065803363</v>
       </c>
     </row>
     <row r="86">
@@ -4865,10 +4865,10 @@
         <v>9</v>
       </c>
       <c r="F86" t="n">
-        <v>2.86206896551724</v>
+        <v>2.85223367697594</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.93810786914235</v>
+        <v>-2.94794315768365</v>
       </c>
     </row>
     <row r="87">
@@ -4888,10 +4888,10 @@
         <v>9</v>
       </c>
       <c r="F87" t="n">
-        <v>4.78059222261862</v>
+        <v>4.77377983612398</v>
       </c>
       <c r="G87" t="n">
-        <v>-2.40871413576288</v>
+        <v>-2.41552652225753</v>
       </c>
     </row>
     <row r="88">
@@ -4911,10 +4911,10 @@
         <v>9</v>
       </c>
       <c r="F88" t="n">
-        <v>2.37154150197628</v>
+        <v>2.3598820058997</v>
       </c>
       <c r="G88" t="n">
-        <v>-2.13826241959234</v>
+        <v>-2.14992191566892</v>
       </c>
     </row>
     <row r="89">
@@ -4934,10 +4934,10 @@
         <v>9</v>
       </c>
       <c r="F89" t="n">
-        <v>3.32883490778228</v>
+        <v>3.3423667570009</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.05203232511893</v>
+        <v>-1.0385004759003</v>
       </c>
     </row>
     <row r="90">
@@ -4957,10 +4957,10 @@
         <v>9</v>
       </c>
       <c r="F90" t="n">
-        <v>4.16304212750093</v>
+        <v>4.17914171656687</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.470052302274</v>
+        <v>-1.45395271320806</v>
       </c>
     </row>
     <row r="91">
@@ -4980,10 +4980,10 @@
         <v>9</v>
       </c>
       <c r="F91" t="n">
-        <v>3.67316341829086</v>
+        <v>3.68144252441773</v>
       </c>
       <c r="G91" t="n">
-        <v>-3.14848292317256</v>
+        <v>-3.14020381704568</v>
       </c>
     </row>
     <row r="92">
@@ -5003,10 +5003,10 @@
         <v>9</v>
       </c>
       <c r="F92" t="n">
-        <v>2.98034242232086</v>
+        <v>2.97703879651623</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.78523438212084</v>
+        <v>-1.78853800792547</v>
       </c>
     </row>
     <row r="93">
@@ -5026,10 +5026,10 @@
         <v>9</v>
       </c>
       <c r="F93" t="n">
-        <v>4.20289855072464</v>
+        <v>4.20899854862119</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.839118255998051</v>
+        <v>-0.833018258101498</v>
       </c>
     </row>
     <row r="94">
@@ -5049,10 +5049,10 @@
         <v>9</v>
       </c>
       <c r="F94" t="n">
-        <v>3.75915896782415</v>
+        <v>3.75198728139905</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.12128287752998</v>
+        <v>-2.12845456395508</v>
       </c>
     </row>
     <row r="95">
@@ -5072,10 +5072,10 @@
         <v>9</v>
       </c>
       <c r="F95" t="n">
-        <v>3.50066050198151</v>
+        <v>3.50993377483444</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.31329298639059</v>
+        <v>-2.30401971353766</v>
       </c>
     </row>
     <row r="96">
@@ -5095,10 +5095,10 @@
         <v>9</v>
       </c>
       <c r="F96" t="n">
-        <v>2.5705329153605</v>
+        <v>2.56089943785134</v>
       </c>
       <c r="G96" t="n">
-        <v>-4.38708884302027</v>
+        <v>-4.39672232052943</v>
       </c>
     </row>
     <row r="97">
@@ -5118,10 +5118,10 @@
         <v>9</v>
       </c>
       <c r="F97" t="n">
-        <v>3.72413793103448</v>
+        <v>3.72157133011716</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.382490311040446</v>
+        <v>-0.385056911957768</v>
       </c>
     </row>
     <row r="98">
@@ -5141,10 +5141,10 @@
         <v>9</v>
       </c>
       <c r="F98" t="n">
-        <v>4.10513880685174</v>
+        <v>4.09485933127117</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.92802054224252</v>
+        <v>-1.93830001782309</v>
       </c>
     </row>
     <row r="99">
@@ -5164,10 +5164,10 @@
         <v>9</v>
       </c>
       <c r="F99" t="n">
-        <v>3.01832554796982</v>
+        <v>3.01075268817204</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.35458049718678</v>
+        <v>-3.36215335698455</v>
       </c>
     </row>
     <row r="100">
@@ -5187,10 +5187,10 @@
         <v>9</v>
       </c>
       <c r="F100" t="n">
-        <v>3.6322360953462</v>
+        <v>3.61581920903955</v>
       </c>
       <c r="G100" t="n">
-        <v>-1.89823794528586</v>
+        <v>-1.91465483159251</v>
       </c>
     </row>
     <row r="101">
@@ -5210,10 +5210,10 @@
         <v>9</v>
       </c>
       <c r="F101" t="n">
-        <v>2.60452364633311</v>
+        <v>2.56410256410256</v>
       </c>
       <c r="G101" t="n">
-        <v>-2.72970997959532</v>
+        <v>-2.77013106182586</v>
       </c>
     </row>
     <row r="102">
@@ -5233,10 +5233,10 @@
         <v>9</v>
       </c>
       <c r="F102" t="n">
-        <v>3.52617079889807</v>
+        <v>3.53006067291782</v>
       </c>
       <c r="G102" t="n">
-        <v>-1.63126676896295</v>
+        <v>-1.6273768949432</v>
       </c>
     </row>
     <row r="103">
@@ -5256,10 +5256,10 @@
         <v>9</v>
       </c>
       <c r="F103" t="n">
-        <v>3.86121992165641</v>
+        <v>3.84829894032348</v>
       </c>
       <c r="G103" t="n">
-        <v>-2.77114142768607</v>
+        <v>-2.784062409019</v>
       </c>
     </row>
     <row r="104">
@@ -5279,10 +5279,10 @@
         <v>9</v>
       </c>
       <c r="F104" t="n">
-        <v>3.25310764348056</v>
+        <v>3.24966974900925</v>
       </c>
       <c r="G104" t="n">
-        <v>-2.68043666031691</v>
+        <v>-2.68387455478822</v>
       </c>
     </row>
     <row r="105">
@@ -5302,10 +5302,10 @@
         <v>9</v>
       </c>
       <c r="F105" t="n">
-        <v>3.57583230579531</v>
+        <v>3.57289527720739</v>
       </c>
       <c r="G105" t="n">
-        <v>-1.48080199841181</v>
+        <v>-1.48373902699973</v>
       </c>
     </row>
     <row r="106">
@@ -5325,10 +5325,10 @@
         <v>9</v>
       </c>
       <c r="F106" t="n">
-        <v>4.12116942585417</v>
+        <v>4.10526315789474</v>
       </c>
       <c r="G106" t="n">
-        <v>-1.04033573565099</v>
+        <v>-1.05624200361042</v>
       </c>
     </row>
     <row r="107">
@@ -5348,10 +5348,10 @@
         <v>9</v>
       </c>
       <c r="F107" t="n">
-        <v>0.900900900900901</v>
+        <v>0.907441016333938</v>
       </c>
       <c r="G107" t="n">
-        <v>-3.59161157830043</v>
+        <v>-3.58507146286739</v>
       </c>
     </row>
     <row r="108">
@@ -5371,10 +5371,10 @@
         <v>9</v>
       </c>
       <c r="F108" t="n">
-        <v>5.19373454245672</v>
+        <v>5.1681706316653</v>
       </c>
       <c r="G108" t="n">
-        <v>-5.40945723465986</v>
+        <v>-5.43502114545128</v>
       </c>
     </row>
     <row r="109">
@@ -5394,10 +5394,10 @@
         <v>9</v>
       </c>
       <c r="F109" t="n">
-        <v>2.91145332050048</v>
+        <v>2.9128550794415</v>
       </c>
       <c r="G109" t="n">
-        <v>-3.70438534157527</v>
+        <v>-3.70298358263425</v>
       </c>
     </row>
     <row r="110">
@@ -5417,10 +5417,10 @@
         <v>9</v>
       </c>
       <c r="F110" t="n">
-        <v>3.66876310272537</v>
+        <v>3.66108786610879</v>
       </c>
       <c r="G110" t="n">
-        <v>-3.77491956132948</v>
+        <v>-3.78259479794606</v>
       </c>
     </row>
     <row r="111">
@@ -5440,10 +5440,10 @@
         <v>9</v>
       </c>
       <c r="F111" t="n">
-        <v>4.74768118220406</v>
+        <v>4.72909489508299</v>
       </c>
       <c r="G111" t="n">
-        <v>-2.74386822428914</v>
+        <v>-2.76245451141021</v>
       </c>
     </row>
     <row r="112">
@@ -5463,10 +5463,10 @@
         <v>9</v>
       </c>
       <c r="F112" t="n">
-        <v>3.17124735729387</v>
+        <v>3.19148936170213</v>
       </c>
       <c r="G112" t="n">
-        <v>-3.39125264270613</v>
+        <v>-3.37101063829787</v>
       </c>
     </row>
     <row r="113">
@@ -5486,10 +5486,10 @@
         <v>9</v>
       </c>
       <c r="F113" t="n">
-        <v>3.15712187958884</v>
+        <v>3.15018315018315</v>
       </c>
       <c r="G113" t="n">
-        <v>-4.394197768505</v>
+        <v>-4.40113649791069</v>
       </c>
     </row>
     <row r="114">
@@ -5509,10 +5509,10 @@
         <v>9</v>
       </c>
       <c r="F114" t="n">
-        <v>4.08839779005525</v>
+        <v>4.07264722069345</v>
       </c>
       <c r="G114" t="n">
-        <v>-2.32841084140415</v>
+        <v>-2.34416141076595</v>
       </c>
     </row>
     <row r="115">
@@ -5532,10 +5532,10 @@
         <v>9</v>
       </c>
       <c r="F115" t="n">
-        <v>4.30408049189491</v>
+        <v>4.30648769574944</v>
       </c>
       <c r="G115" t="n">
-        <v>-1.03316290986462</v>
+        <v>-1.03075570601009</v>
       </c>
     </row>
     <row r="116">
@@ -5555,10 +5555,10 @@
         <v>9</v>
       </c>
       <c r="F116" t="n">
-        <v>3.61966504592112</v>
+        <v>3.61380798274002</v>
       </c>
       <c r="G116" t="n">
-        <v>-2.24678534607671</v>
+        <v>-2.25264240925782</v>
       </c>
     </row>
     <row r="117">
@@ -5578,10 +5578,10 @@
         <v>9</v>
       </c>
       <c r="F117" t="n">
-        <v>4.36241610738255</v>
+        <v>4.33092726263187</v>
       </c>
       <c r="G117" t="n">
-        <v>-2.37915692632531</v>
+        <v>-2.41064577107599</v>
       </c>
     </row>
     <row r="118">
@@ -5601,10 +5601,10 @@
         <v>9</v>
       </c>
       <c r="F118" t="n">
-        <v>4.78443743427971</v>
+        <v>4.7569262937794</v>
       </c>
       <c r="G118" t="n">
-        <v>-1.38456204731698</v>
+        <v>-1.41207318781728</v>
       </c>
     </row>
     <row r="119">
@@ -5624,10 +5624,10 @@
         <v>9</v>
       </c>
       <c r="F119" t="n">
-        <v>4.53468697123519</v>
+        <v>4.52244346945663</v>
       </c>
       <c r="G119" t="n">
-        <v>-2.13197969543147</v>
+        <v>-2.14422319721004</v>
       </c>
     </row>
     <row r="120">
@@ -5647,10 +5647,10 @@
         <v>9</v>
       </c>
       <c r="F120" t="n">
-        <v>4.01987353206865</v>
+        <v>4.02169001355626</v>
       </c>
       <c r="G120" t="n">
-        <v>-1.77585093348954</v>
+        <v>-1.77403445200194</v>
       </c>
     </row>
     <row r="121">
@@ -5670,10 +5670,10 @@
         <v>9</v>
       </c>
       <c r="F121" t="n">
-        <v>4.0890836071559</v>
+        <v>4.09806073911453</v>
       </c>
       <c r="G121" t="n">
-        <v>-3.1589345128894</v>
+        <v>-3.14995738093077</v>
       </c>
     </row>
     <row r="122">
@@ -5693,10 +5693,10 @@
         <v>9</v>
       </c>
       <c r="F122" t="n">
-        <v>2.95593976575572</v>
+        <v>2.9297954671089</v>
       </c>
       <c r="G122" t="n">
-        <v>-1.37431427581472</v>
+        <v>-1.40045857446154</v>
       </c>
     </row>
     <row r="123">
@@ -5716,10 +5716,10 @@
         <v>9</v>
       </c>
       <c r="F123" t="n">
-        <v>3.12742310674593</v>
+        <v>3.11695002575992</v>
       </c>
       <c r="G123" t="n">
-        <v>-1.97654664750738</v>
+        <v>-1.98701972849339</v>
       </c>
     </row>
     <row r="124">
@@ -5739,10 +5739,10 @@
         <v>9</v>
       </c>
       <c r="F124" t="n">
-        <v>2.7258064516129</v>
+        <v>2.71311606999518</v>
       </c>
       <c r="G124" t="n">
-        <v>-2.96409397512963</v>
+        <v>-2.97678435674735</v>
       </c>
     </row>
     <row r="125">
@@ -5762,10 +5762,10 @@
         <v>9</v>
       </c>
       <c r="F125" t="n">
-        <v>3.42857142857143</v>
+        <v>3.40304856433889</v>
       </c>
       <c r="G125" t="n">
-        <v>-2.22713730242892</v>
+        <v>-2.25266016666147</v>
       </c>
     </row>
     <row r="126">
@@ -5785,10 +5785,10 @@
         <v>9</v>
       </c>
       <c r="F126" t="n">
-        <v>3.47995545657016</v>
+        <v>3.46068660022148</v>
       </c>
       <c r="G126" t="n">
-        <v>-2.58617315577038</v>
+        <v>-2.60544201211905</v>
       </c>
     </row>
     <row r="127">
@@ -5808,10 +5808,10 @@
         <v>9</v>
       </c>
       <c r="F127" t="n">
-        <v>3.06943978530694</v>
+        <v>3.0566226824787</v>
       </c>
       <c r="G127" t="n">
-        <v>-2.66508542973775</v>
+        <v>-2.67790253256599</v>
       </c>
     </row>
     <row r="128">
@@ -5831,10 +5831,10 @@
         <v>9</v>
       </c>
       <c r="F128" t="n">
-        <v>3.70514820592824</v>
+        <v>3.69362363919129</v>
       </c>
       <c r="G128" t="n">
-        <v>-4.54690017487551</v>
+        <v>-4.55842474161246</v>
       </c>
     </row>
     <row r="129">
@@ -5854,10 +5854,10 @@
         <v>9</v>
       </c>
       <c r="F129" t="n">
-        <v>3.65752285951787</v>
+        <v>3.66056572379368</v>
       </c>
       <c r="G129" t="n">
-        <v>-1.45135486242518</v>
+        <v>-1.44831199814937</v>
       </c>
     </row>
     <row r="130">
@@ -5877,10 +5877,10 @@
         <v>9</v>
       </c>
       <c r="F130" t="n">
-        <v>3.67898699520876</v>
+        <v>3.6676902081201</v>
       </c>
       <c r="G130" t="n">
-        <v>-3.51695895073718</v>
+        <v>-3.52825573782585</v>
       </c>
     </row>
     <row r="131">
@@ -5900,10 +5900,10 @@
         <v>9</v>
       </c>
       <c r="F131" t="n">
-        <v>3.46820809248555</v>
+        <v>3.45278577033743</v>
       </c>
       <c r="G131" t="n">
-        <v>-2.599753072563</v>
+        <v>-2.61517539471111</v>
       </c>
     </row>
     <row r="132">
@@ -5923,10 +5923,10 @@
         <v>9</v>
       </c>
       <c r="F132" t="n">
-        <v>2.5706940874036</v>
+        <v>2.55918106206014</v>
       </c>
       <c r="G132" t="n">
-        <v>-3.47912797665334</v>
+        <v>-3.4906410019968</v>
       </c>
     </row>
     <row r="133">
@@ -5946,10 +5946,10 @@
         <v>9</v>
       </c>
       <c r="F133" t="n">
-        <v>3.78151260504202</v>
+        <v>3.77754459601259</v>
       </c>
       <c r="G133" t="n">
-        <v>-2.44166336062322</v>
+        <v>-2.44563136965264</v>
       </c>
     </row>
     <row r="134">
@@ -5969,10 +5969,10 @@
         <v>9</v>
       </c>
       <c r="F134" t="n">
-        <v>4.17861532158951</v>
+        <v>4.15140415140415</v>
       </c>
       <c r="G134" t="n">
-        <v>-2.57640819273285</v>
+        <v>-2.60361936291821</v>
       </c>
     </row>
     <row r="135">
@@ -5992,10 +5992,10 @@
         <v>9</v>
       </c>
       <c r="F135" t="n">
-        <v>2.95616717635066</v>
+        <v>2.95767465578786</v>
       </c>
       <c r="G135" t="n">
-        <v>-3.36774027866219</v>
+        <v>-3.36623279922499</v>
       </c>
     </row>
     <row r="136">
@@ -6015,10 +6015,10 @@
         <v>9</v>
       </c>
       <c r="F136" t="n">
-        <v>4.46793177996637</v>
+        <v>4.45189085686932</v>
       </c>
       <c r="G136" t="n">
-        <v>-2.33946859954027</v>
+        <v>-2.35550952263733</v>
       </c>
     </row>
     <row r="137">
@@ -6038,10 +6038,10 @@
         <v>9</v>
       </c>
       <c r="F137" t="n">
-        <v>3.77104377104377</v>
+        <v>3.75251284342193</v>
       </c>
       <c r="G137" t="n">
-        <v>-2.88363248794904</v>
+        <v>-2.90216341557087</v>
       </c>
     </row>
     <row r="138">
@@ -6061,10 +6061,10 @@
         <v>9</v>
       </c>
       <c r="F138" t="n">
-        <v>3.74203821656051</v>
+        <v>3.73608903020668</v>
       </c>
       <c r="G138" t="n">
-        <v>-0.974247708273684</v>
+        <v>-0.980196894627515</v>
       </c>
     </row>
     <row r="139">
@@ -6084,10 +6084,10 @@
         <v>9</v>
       </c>
       <c r="F139" t="n">
-        <v>3.41180484476288</v>
+        <v>3.41530054644809</v>
       </c>
       <c r="G139" t="n">
-        <v>-3.50452443998746</v>
+        <v>-3.50102873830225</v>
       </c>
     </row>
     <row r="140">
@@ -6107,10 +6107,10 @@
         <v>9</v>
       </c>
       <c r="F140" t="n">
-        <v>3.59772025647115</v>
+        <v>3.60585505176723</v>
       </c>
       <c r="G140" t="n">
-        <v>-2.56043229776258</v>
+        <v>-2.5522975024665</v>
       </c>
     </row>
     <row r="141">
@@ -6130,10 +6130,10 @@
         <v>9</v>
       </c>
       <c r="F141" t="n">
-        <v>4.0991762949859</v>
+        <v>4.09295393701874</v>
       </c>
       <c r="G141" t="n">
-        <v>-1.65754333384694</v>
+        <v>-1.66376569181411</v>
       </c>
     </row>
     <row r="142">
@@ -6153,10 +6153,10 @@
         <v>9</v>
       </c>
       <c r="F142" t="n">
-        <v>2.91185729275971</v>
+        <v>2.90804296567985</v>
       </c>
       <c r="G142" t="n">
-        <v>-2.83885829402145</v>
+        <v>-2.84267262110131</v>
       </c>
     </row>
     <row r="143">
@@ -6176,10 +6176,10 @@
         <v>9</v>
       </c>
       <c r="F143" t="n">
-        <v>3.84766907419567</v>
+        <v>3.87309980171844</v>
       </c>
       <c r="G143" t="n">
-        <v>-3.63711233144905</v>
+        <v>-3.61168160392627</v>
       </c>
     </row>
     <row r="144">
@@ -6199,10 +6199,10 @@
         <v>9</v>
       </c>
       <c r="F144" t="n">
-        <v>3.92422192151556</v>
+        <v>3.94289598912305</v>
       </c>
       <c r="G144" t="n">
-        <v>-5.40256629727827</v>
+        <v>-5.38389222967078</v>
       </c>
     </row>
     <row r="145">
@@ -6222,10 +6222,10 @@
         <v>9</v>
       </c>
       <c r="F145" t="n">
-        <v>4.38901848196662</v>
+        <v>4.38838853206071</v>
       </c>
       <c r="G145" t="n">
-        <v>-2.97885716570177</v>
+        <v>-2.97948711560768</v>
       </c>
     </row>
     <row r="146">
@@ -6245,10 +6245,10 @@
         <v>9</v>
       </c>
       <c r="F146" t="n">
-        <v>3.30562153602534</v>
+        <v>3.3010476378731</v>
       </c>
       <c r="G146" t="n">
-        <v>-4.5575237220779</v>
+        <v>-4.56209762023014</v>
       </c>
     </row>
     <row r="147">
@@ -6268,10 +6268,10 @@
         <v>9</v>
       </c>
       <c r="F147" t="n">
-        <v>4.30332635496627</v>
+        <v>4.31034482758621</v>
       </c>
       <c r="G147" t="n">
-        <v>-4.58140593402134</v>
+        <v>-4.5743874614014</v>
       </c>
     </row>
     <row r="148">
@@ -6291,10 +6291,10 @@
         <v>9</v>
       </c>
       <c r="F148" t="n">
-        <v>2.53090052972337</v>
+        <v>2.52347417840376</v>
       </c>
       <c r="G148" t="n">
-        <v>-3.93027315136733</v>
+        <v>-3.93769950268694</v>
       </c>
     </row>
     <row r="149">
@@ -6314,10 +6314,10 @@
         <v>9</v>
       </c>
       <c r="F149" t="n">
-        <v>3.79078694817658</v>
+        <v>3.76908396946565</v>
       </c>
       <c r="G149" t="n">
-        <v>-4.47244907359482</v>
+        <v>-4.49415205230575</v>
       </c>
     </row>
     <row r="150">
@@ -6337,10 +6337,10 @@
         <v>9</v>
       </c>
       <c r="F150" t="n">
-        <v>3.4269048487058</v>
+        <v>3.4156976744186</v>
       </c>
       <c r="G150" t="n">
-        <v>-3.10479874182132</v>
+        <v>-3.11600591610852</v>
       </c>
     </row>
     <row r="151">
@@ -6360,10 +6360,10 @@
         <v>9</v>
       </c>
       <c r="F151" t="n">
-        <v>3.05498981670061</v>
+        <v>3.05084745762712</v>
       </c>
       <c r="G151" t="n">
-        <v>-4.58300761590529</v>
+        <v>-4.58714997497879</v>
       </c>
     </row>
     <row r="152">
@@ -6406,10 +6406,10 @@
         <v>9</v>
       </c>
       <c r="F153" t="n">
-        <v>3.93303751512707</v>
+        <v>3.92670157068063</v>
       </c>
       <c r="G153" t="n">
-        <v>-2.69150386277754</v>
+        <v>-2.69783980722398</v>
       </c>
     </row>
     <row r="154">
@@ -6429,10 +6429,10 @@
         <v>9</v>
       </c>
       <c r="F154" t="n">
-        <v>4.18571931058741</v>
+        <v>4.18130709768096</v>
       </c>
       <c r="G154" t="n">
-        <v>-4.31078418591609</v>
+        <v>-4.31519639882254</v>
       </c>
     </row>
     <row r="155">
@@ -6452,10 +6452,10 @@
         <v>9</v>
       </c>
       <c r="F155" t="n">
-        <v>3.49194167306216</v>
+        <v>3.48792640858566</v>
       </c>
       <c r="G155" t="n">
-        <v>-4.84453512814493</v>
+        <v>-4.84855039262143</v>
       </c>
     </row>
     <row r="156">
@@ -6475,10 +6475,10 @@
         <v>9</v>
       </c>
       <c r="F156" t="n">
-        <v>4.21875</v>
+        <v>4.20888542478566</v>
       </c>
       <c r="G156" t="n">
-        <v>-2.80212286527514</v>
+        <v>-2.81198744048948</v>
       </c>
     </row>
     <row r="157">
@@ -6498,10 +6498,10 @@
         <v>9</v>
       </c>
       <c r="F157" t="n">
-        <v>3.95749358739465</v>
+        <v>3.93873085339168</v>
       </c>
       <c r="G157" t="n">
-        <v>-4.23624275637811</v>
+        <v>-4.25500549038107</v>
       </c>
     </row>
     <row r="158">
@@ -6521,10 +6521,10 @@
         <v>9</v>
       </c>
       <c r="F158" t="n">
-        <v>3.76546530392684</v>
+        <v>3.76749192680301</v>
       </c>
       <c r="G158" t="n">
-        <v>-2.26901745469385</v>
+        <v>-2.26699083181768</v>
       </c>
     </row>
     <row r="159">
@@ -6544,10 +6544,10 @@
         <v>9</v>
       </c>
       <c r="F159" t="n">
-        <v>4.67042447946624</v>
+        <v>4.67257451950742</v>
       </c>
       <c r="G159" t="n">
-        <v>-3.45499696355467</v>
+        <v>-3.45284692351348</v>
       </c>
     </row>
     <row r="160">
@@ -6567,10 +6567,10 @@
         <v>9</v>
       </c>
       <c r="F160" t="n">
-        <v>3.59600825877495</v>
+        <v>3.60220613581524</v>
       </c>
       <c r="G160" t="n">
-        <v>-2.44198360011243</v>
+        <v>-2.43578572307215</v>
       </c>
     </row>
     <row r="161">
@@ -6590,10 +6590,10 @@
         <v>9</v>
       </c>
       <c r="F161" t="n">
-        <v>4.73319937486046</v>
+        <v>4.71268200511282</v>
       </c>
       <c r="G161" t="n">
-        <v>-3.5121157869794</v>
+        <v>-3.53263315672705</v>
       </c>
     </row>
     <row r="162">
@@ -6613,10 +6613,10 @@
         <v>9</v>
       </c>
       <c r="F162" t="n">
-        <v>4.05236907730673</v>
+        <v>4.03977625854568</v>
       </c>
       <c r="G162" t="n">
-        <v>-3.15947895875251</v>
+        <v>-3.17207177751356</v>
       </c>
     </row>
     <row r="163">
@@ -6636,10 +6636,10 @@
         <v>9</v>
       </c>
       <c r="F163" t="n">
-        <v>3.27064595257563</v>
+        <v>3.27600327600328</v>
       </c>
       <c r="G163" t="n">
-        <v>-3.41304923686668</v>
+        <v>-3.40769191343904</v>
       </c>
     </row>
     <row r="164">
@@ -6659,10 +6659,10 @@
         <v>9</v>
       </c>
       <c r="F164" t="n">
-        <v>3.31521739130435</v>
+        <v>3.31341662140141</v>
       </c>
       <c r="G164" t="n">
-        <v>-1.90866320571058</v>
+        <v>-1.91046397561351</v>
       </c>
     </row>
     <row r="165">
@@ -6682,10 +6682,10 @@
         <v>9</v>
       </c>
       <c r="F165" t="n">
-        <v>3.3606204222318</v>
+        <v>3.34333476210887</v>
       </c>
       <c r="G165" t="n">
-        <v>-2.00850709454673</v>
+        <v>-2.02579275466965</v>
       </c>
     </row>
     <row r="166">
@@ -6705,10 +6705,10 @@
         <v>9</v>
       </c>
       <c r="F166" t="n">
-        <v>4.52261306532663</v>
+        <v>4.4810417464573</v>
       </c>
       <c r="G166" t="n">
-        <v>-1.38353580198728</v>
+        <v>-1.42510712085662</v>
       </c>
     </row>
     <row r="167">
@@ -6728,10 +6728,10 @@
         <v>9</v>
       </c>
       <c r="F167" t="n">
-        <v>3.55116621138895</v>
+        <v>3.53150141051092</v>
       </c>
       <c r="G167" t="n">
-        <v>-2.87866999932376</v>
+        <v>-2.89833480020179</v>
       </c>
     </row>
     <row r="168">
@@ -6751,10 +6751,10 @@
         <v>9</v>
       </c>
       <c r="F168" t="n">
-        <v>3.32302936630603</v>
+        <v>3.31151328455911</v>
       </c>
       <c r="G168" t="n">
-        <v>-2.77059452392803</v>
+        <v>-2.78211060567495</v>
       </c>
     </row>
     <row r="169">
@@ -6774,10 +6774,10 @@
         <v>9</v>
       </c>
       <c r="F169" t="n">
-        <v>3.14124293785311</v>
+        <v>3.12710911136108</v>
       </c>
       <c r="G169" t="n">
-        <v>-3.35006980345963</v>
+        <v>-3.36420362995166</v>
       </c>
     </row>
     <row r="170">
@@ -6797,10 +6797,10 @@
         <v>9</v>
       </c>
       <c r="F170" t="n">
-        <v>3.58533087482073</v>
+        <v>3.5772690106296</v>
       </c>
       <c r="G170" t="n">
-        <v>-2.65770145516812</v>
+        <v>-2.66576331935925</v>
       </c>
     </row>
     <row r="171">
@@ -6820,10 +6820,10 @@
         <v>9</v>
       </c>
       <c r="F171" t="n">
-        <v>4.49886104783599</v>
+        <v>4.48481407891002</v>
       </c>
       <c r="G171" t="n">
-        <v>-1.10066988151024</v>
+        <v>-1.11471685043621</v>
       </c>
     </row>
     <row r="172">
@@ -6843,10 +6843,10 @@
         <v>9</v>
       </c>
       <c r="F172" t="n">
-        <v>4.1191614564178</v>
+        <v>4.09756097560976</v>
       </c>
       <c r="G172" t="n">
-        <v>-2.2296401754027</v>
+        <v>-2.25124065621074</v>
       </c>
     </row>
     <row r="173">
@@ -6866,10 +6866,10 @@
         <v>9</v>
       </c>
       <c r="F173" t="n">
-        <v>4.68700849323687</v>
+        <v>4.66791979949875</v>
       </c>
       <c r="G173" t="n">
-        <v>-1.78190569240236</v>
+        <v>-1.80099438614048</v>
       </c>
     </row>
     <row r="174">
@@ -6889,10 +6889,10 @@
         <v>9</v>
       </c>
       <c r="F174" t="n">
-        <v>4.25364316660102</v>
+        <v>4.23197492163009</v>
       </c>
       <c r="G174" t="n">
-        <v>-3.10908561875671</v>
+        <v>-3.13075386372764</v>
       </c>
     </row>
     <row r="175">
@@ -6912,10 +6912,10 @@
         <v>9</v>
       </c>
       <c r="F175" t="n">
-        <v>3.38616714697406</v>
+        <v>3.34996436208125</v>
       </c>
       <c r="G175" t="n">
-        <v>-2.3433974061199</v>
+        <v>-2.37960019101271</v>
       </c>
     </row>
     <row r="176">
@@ -6935,10 +6935,10 @@
         <v>9</v>
       </c>
       <c r="F176" t="n">
-        <v>3.4366576819407</v>
+        <v>3.42281879194631</v>
       </c>
       <c r="G176" t="n">
-        <v>-4.42652990621163</v>
+        <v>-4.44036879620602</v>
       </c>
     </row>
     <row r="177">
@@ -6958,10 +6958,10 @@
         <v>9</v>
       </c>
       <c r="F177" t="n">
-        <v>3.91759540695711</v>
+        <v>3.90638154571477</v>
       </c>
       <c r="G177" t="n">
-        <v>-1.67368719397179</v>
+        <v>-1.68490105521414</v>
       </c>
     </row>
     <row r="178">
@@ -6981,10 +6981,10 @@
         <v>9</v>
       </c>
       <c r="F178" t="n">
-        <v>4.86965966690804</v>
+        <v>4.85998193315266</v>
       </c>
       <c r="G178" t="n">
-        <v>-2.57946824006871</v>
+        <v>-2.58914597382408</v>
       </c>
     </row>
     <row r="179">
@@ -7004,10 +7004,10 @@
         <v>9</v>
       </c>
       <c r="F179" t="n">
-        <v>3.59430604982206</v>
+        <v>3.59174964438122</v>
       </c>
       <c r="G179" t="n">
-        <v>-2.09765823589222</v>
+        <v>-2.10021464133306</v>
       </c>
     </row>
     <row r="180">
@@ -7027,10 +7027,10 @@
         <v>9</v>
       </c>
       <c r="F180" t="n">
-        <v>3.82775119617225</v>
+        <v>3.81991814461119</v>
       </c>
       <c r="G180" t="n">
-        <v>-1.81970076706919</v>
+        <v>-1.82753381863025</v>
       </c>
     </row>
     <row r="181">
@@ -7050,10 +7050,10 @@
         <v>9</v>
       </c>
       <c r="F181" t="n">
-        <v>3.36924134769654</v>
+        <v>3.34851936218679</v>
       </c>
       <c r="G181" t="n">
-        <v>-3.1446034094528</v>
+        <v>-3.16532539496256</v>
       </c>
     </row>
     <row r="182">
@@ -7073,10 +7073,10 @@
         <v>9</v>
       </c>
       <c r="F182" t="n">
-        <v>3.55759070095104</v>
+        <v>3.53765323992995</v>
       </c>
       <c r="G182" t="n">
-        <v>-2.10920189443997</v>
+        <v>-2.12913935546106</v>
       </c>
     </row>
     <row r="183">
@@ -7096,10 +7096,10 @@
         <v>9</v>
       </c>
       <c r="F183" t="n">
-        <v>3.86604955077593</v>
+        <v>3.85241454150841</v>
       </c>
       <c r="G183" t="n">
-        <v>-2.5780723650441</v>
+        <v>-2.59170737431162</v>
       </c>
     </row>
     <row r="184">
@@ -7119,10 +7119,10 @@
         <v>9</v>
       </c>
       <c r="F184" t="n">
-        <v>4.1056166056166</v>
+        <v>4.09249961965617</v>
       </c>
       <c r="G184" t="n">
-        <v>-2.75744587415031</v>
+        <v>-2.77056286011075</v>
       </c>
     </row>
     <row r="185">
@@ -7142,10 +7142,10 @@
         <v>9</v>
       </c>
       <c r="F185" t="n">
-        <v>4.33511488739665</v>
+        <v>4.33155324295951</v>
       </c>
       <c r="G185" t="n">
-        <v>-2.63194481688933</v>
+        <v>-2.63550646132647</v>
       </c>
     </row>
     <row r="186">
@@ -7165,10 +7165,10 @@
         <v>9</v>
       </c>
       <c r="F186" t="n">
-        <v>4.86865148861646</v>
+        <v>4.86269022214448</v>
       </c>
       <c r="G186" t="n">
-        <v>-1.53107472630482</v>
+        <v>-1.5370359927768</v>
       </c>
     </row>
     <row r="187">
@@ -7188,10 +7188,10 @@
         <v>9</v>
       </c>
       <c r="F187" t="n">
-        <v>4.53445387090769</v>
+        <v>4.52470675654159</v>
       </c>
       <c r="G187" t="n">
-        <v>-1.33432545375964</v>
+        <v>-1.34407256812575</v>
       </c>
     </row>
     <row r="188">
@@ -7211,10 +7211,10 @@
         <v>9</v>
       </c>
       <c r="F188" t="n">
-        <v>3.89891696750903</v>
+        <v>3.8914244535191</v>
       </c>
       <c r="G188" t="n">
-        <v>-2.30485301578852</v>
+        <v>-2.31234552977845</v>
       </c>
     </row>
     <row r="189">
@@ -7234,10 +7234,10 @@
         <v>9</v>
       </c>
       <c r="F189" t="n">
-        <v>3.61527967257844</v>
+        <v>3.60299116247451</v>
       </c>
       <c r="G189" t="n">
-        <v>-2.8863399479676</v>
+        <v>-2.89862845807154</v>
       </c>
     </row>
     <row r="190">
@@ -7257,10 +7257,10 @@
         <v>9</v>
       </c>
       <c r="F190" t="n">
-        <v>4.50640754823264</v>
+        <v>4.50323670137912</v>
       </c>
       <c r="G190" t="n">
-        <v>-1.98351236339398</v>
+        <v>-1.98668321024751</v>
       </c>
     </row>
     <row r="191">
@@ -7280,10 +7280,10 @@
         <v>9</v>
       </c>
       <c r="F191" t="n">
-        <v>5.04879083580823</v>
+        <v>5.06598552575564</v>
       </c>
       <c r="G191" t="n">
-        <v>-2.31746430822469</v>
+        <v>-2.30026961827728</v>
       </c>
     </row>
     <row r="192">
@@ -7303,10 +7303,10 @@
         <v>9</v>
       </c>
       <c r="F192" t="n">
-        <v>3.82990706843143</v>
+        <v>3.81807973048849</v>
       </c>
       <c r="G192" t="n">
-        <v>-1.69863856290626</v>
+        <v>-1.7104659008492</v>
       </c>
     </row>
     <row r="193">
@@ -7326,10 +7326,10 @@
         <v>9</v>
       </c>
       <c r="F193" t="n">
-        <v>4.29625724828677</v>
+        <v>4.29286278641032</v>
       </c>
       <c r="G193" t="n">
-        <v>-1.93094441924841</v>
+        <v>-1.93433888112485</v>
       </c>
     </row>
     <row r="194">
@@ -7349,10 +7349,10 @@
         <v>9</v>
       </c>
       <c r="F194" t="n">
-        <v>4.19398907103825</v>
+        <v>4.18712493180578</v>
       </c>
       <c r="G194" t="n">
-        <v>-2.01493275807656</v>
+        <v>-2.02179689730903</v>
       </c>
     </row>
     <row r="195">
@@ -7372,10 +7372,10 @@
         <v>9</v>
       </c>
       <c r="F195" t="n">
-        <v>3.9592597905609</v>
+        <v>3.92770741425929</v>
       </c>
       <c r="G195" t="n">
-        <v>-2.31625812868907</v>
+        <v>-2.34781050499068</v>
       </c>
     </row>
     <row r="196">
@@ -7395,10 +7395,10 @@
         <v>9</v>
       </c>
       <c r="F196" t="n">
-        <v>4.26868556701031</v>
+        <v>4.25224646983312</v>
       </c>
       <c r="G196" t="n">
-        <v>-1.76593161683501</v>
+        <v>-1.7823707140122</v>
       </c>
     </row>
     <row r="197">
@@ -7418,10 +7418,10 @@
         <v>9</v>
       </c>
       <c r="F197" t="n">
-        <v>5.40289393335988</v>
+        <v>5.38075092543628</v>
       </c>
       <c r="G197" t="n">
-        <v>-2.91153286498524</v>
+        <v>-2.93367587290884</v>
       </c>
     </row>
     <row r="198">
@@ -7441,10 +7441,10 @@
         <v>9</v>
       </c>
       <c r="F198" t="n">
-        <v>4.09674234945706</v>
+        <v>4.08799868658677</v>
       </c>
       <c r="G198" t="n">
-        <v>-2.46089499573189</v>
+        <v>-2.46963865860218</v>
       </c>
     </row>
     <row r="199">
@@ -7464,10 +7464,10 @@
         <v>9</v>
       </c>
       <c r="F199" t="n">
-        <v>3.79061371841155</v>
+        <v>3.78890392422192</v>
       </c>
       <c r="G199" t="n">
-        <v>-1.43559532995038</v>
+        <v>-1.43730512414001</v>
       </c>
     </row>
     <row r="200">
@@ -7487,10 +7487,10 @@
         <v>9</v>
       </c>
       <c r="F200" t="n">
-        <v>3.56005246393105</v>
+        <v>3.55672032946462</v>
       </c>
       <c r="G200" t="n">
-        <v>-2.36087689713322</v>
+        <v>-2.36420903159965</v>
       </c>
     </row>
     <row r="201">
@@ -7510,10 +7510,10 @@
         <v>9</v>
       </c>
       <c r="F201" t="n">
-        <v>4.10605349601126</v>
+        <v>4.09165302782324</v>
       </c>
       <c r="G201" t="n">
-        <v>-1.97068192204152</v>
+        <v>-1.98508239022954</v>
       </c>
     </row>
     <row r="202">
@@ -7533,10 +7533,10 @@
         <v>9</v>
       </c>
       <c r="F202" t="n">
-        <v>4.06635646368602</v>
+        <v>4.05405405405405</v>
       </c>
       <c r="G202" t="n">
-        <v>-2.31186819607429</v>
+        <v>-2.32417060570625</v>
       </c>
     </row>
     <row r="203">
@@ -7556,10 +7556,10 @@
         <v>9</v>
       </c>
       <c r="F203" t="n">
-        <v>4.19003629165292</v>
+        <v>4.16666666666667</v>
       </c>
       <c r="G203" t="n">
-        <v>-1.89543379381717</v>
+        <v>-1.91880341880342</v>
       </c>
     </row>
     <row r="204">
@@ -7579,10 +7579,10 @@
         <v>9</v>
       </c>
       <c r="F204" t="n">
-        <v>3.78212811293115</v>
+        <v>3.78162450066578</v>
       </c>
       <c r="G204" t="n">
-        <v>-1.6296365929512</v>
+        <v>-1.63014020521657</v>
       </c>
     </row>
     <row r="205">
@@ -7602,10 +7602,10 @@
         <v>9</v>
       </c>
       <c r="F205" t="n">
-        <v>2.76100086281277</v>
+        <v>2.75387263339071</v>
       </c>
       <c r="G205" t="n">
-        <v>-3.86151569347862</v>
+        <v>-3.86864392290069</v>
       </c>
     </row>
     <row r="206">
@@ -7625,10 +7625,10 @@
         <v>9</v>
       </c>
       <c r="F206" t="n">
-        <v>4.27881297446515</v>
+        <v>4.26409903713893</v>
       </c>
       <c r="G206" t="n">
-        <v>-3.75690131124914</v>
+        <v>-3.77161524857536</v>
       </c>
     </row>
     <row r="207">
@@ -7648,10 +7648,10 @@
         <v>9</v>
       </c>
       <c r="F207" t="n">
-        <v>4.24335378323108</v>
+        <v>4.22177009155646</v>
       </c>
       <c r="G207" t="n">
-        <v>-3.18614730136761</v>
+        <v>-3.20773099304224</v>
       </c>
     </row>
     <row r="208">
@@ -7671,10 +7671,10 @@
         <v>9</v>
       </c>
       <c r="F208" t="n">
-        <v>3.17241379310345</v>
+        <v>3.14422419685578</v>
       </c>
       <c r="G208" t="n">
-        <v>-2.85331403357225</v>
+        <v>-2.88150362981992</v>
       </c>
     </row>
     <row r="209">
@@ -7694,10 +7694,10 @@
         <v>9</v>
       </c>
       <c r="F209" t="n">
-        <v>2.94767870302137</v>
+        <v>2.93470286133529</v>
       </c>
       <c r="G209" t="n">
-        <v>-2.76262770366387</v>
+        <v>-2.77560354534995</v>
       </c>
     </row>
     <row r="210">
@@ -7717,10 +7717,10 @@
         <v>9</v>
       </c>
       <c r="F210" t="n">
-        <v>3.74768089053803</v>
+        <v>3.77852600074822</v>
       </c>
       <c r="G210" t="n">
-        <v>-4.61455417689934</v>
+        <v>-4.58370906668916</v>
       </c>
     </row>
     <row r="211">
@@ -7740,10 +7740,10 @@
         <v>9</v>
       </c>
       <c r="F211" t="n">
-        <v>3.60668185269552</v>
+        <v>3.63288718929254</v>
       </c>
       <c r="G211" t="n">
-        <v>-3.18436292342388</v>
+        <v>-3.15815758682686</v>
       </c>
     </row>
     <row r="212">
@@ -7763,10 +7763,10 @@
         <v>9</v>
       </c>
       <c r="F212" t="n">
-        <v>4.14698162729659</v>
+        <v>4.13504318241298</v>
       </c>
       <c r="G212" t="n">
-        <v>-3.85816637785142</v>
+        <v>-3.87010482273502</v>
       </c>
     </row>
     <row r="213">
@@ -7786,10 +7786,10 @@
         <v>9</v>
       </c>
       <c r="F213" t="n">
-        <v>3.55555555555556</v>
+        <v>3.55160932297447</v>
       </c>
       <c r="G213" t="n">
-        <v>-3.35816125860374</v>
+        <v>-3.36210749118482</v>
       </c>
     </row>
     <row r="214">
@@ -7809,10 +7809,10 @@
         <v>9</v>
       </c>
       <c r="F214" t="n">
-        <v>4.64601769911504</v>
+        <v>4.63356973995272</v>
       </c>
       <c r="G214" t="n">
-        <v>-3.06397616967711</v>
+        <v>-3.07642412883943</v>
       </c>
     </row>
     <row r="215">
@@ -7832,10 +7832,10 @@
         <v>9</v>
       </c>
       <c r="F215" t="n">
-        <v>3.42281879194631</v>
+        <v>3.46232179226069</v>
       </c>
       <c r="G215" t="n">
-        <v>-1.90869180272218</v>
+        <v>-1.8691888024078</v>
       </c>
     </row>
     <row r="216">
@@ -7855,10 +7855,10 @@
         <v>9</v>
       </c>
       <c r="F216" t="n">
-        <v>3.30097087378641</v>
+        <v>3.29074719318622</v>
       </c>
       <c r="G216" t="n">
-        <v>-2.71916075610132</v>
+        <v>-2.72938443670151</v>
       </c>
     </row>
     <row r="217">
@@ -7878,10 +7878,10 @@
         <v>9</v>
       </c>
       <c r="F217" t="n">
-        <v>2.83209710047202</v>
+        <v>2.83400809716599</v>
       </c>
       <c r="G217" t="n">
-        <v>-3.34877472776481</v>
+        <v>-3.34686373107083</v>
       </c>
     </row>
     <row r="218">
@@ -7901,10 +7901,10 @@
         <v>9</v>
       </c>
       <c r="F218" t="n">
-        <v>4.56204379562044</v>
+        <v>4.57317073170732</v>
       </c>
       <c r="G218" t="n">
-        <v>-2.97718314659158</v>
+        <v>-2.9660562105047</v>
       </c>
     </row>
     <row r="219">
@@ -7924,10 +7924,10 @@
         <v>9</v>
       </c>
       <c r="F219" t="n">
-        <v>3.74382364120106</v>
+        <v>3.74667173830354</v>
       </c>
       <c r="G219" t="n">
-        <v>-3.46219705494193</v>
+        <v>-3.45934895783945</v>
       </c>
     </row>
     <row r="220">
@@ -7947,10 +7947,10 @@
         <v>9</v>
       </c>
       <c r="F220" t="n">
-        <v>3.0209617755857</v>
+        <v>3.03970223325062</v>
       </c>
       <c r="G220" t="n">
-        <v>-4.12649476015159</v>
+        <v>-4.10775430248666</v>
       </c>
     </row>
     <row r="221">
@@ -7970,10 +7970,10 @@
         <v>9</v>
       </c>
       <c r="F221" t="n">
-        <v>5.68373663477772</v>
+        <v>5.67415730337079</v>
       </c>
       <c r="G221" t="n">
-        <v>-3.29684588949413</v>
+        <v>-3.30642522090106</v>
       </c>
     </row>
     <row r="222">
@@ -7993,10 +7993,10 @@
         <v>9</v>
       </c>
       <c r="F222" t="n">
-        <v>3.81715362865222</v>
+        <v>3.80818053596615</v>
       </c>
       <c r="G222" t="n">
-        <v>-3.26129542454887</v>
+        <v>-3.27026851723493</v>
       </c>
     </row>
     <row r="223">
@@ -8016,10 +8016,10 @@
         <v>9</v>
       </c>
       <c r="F223" t="n">
-        <v>4.55217262784511</v>
+        <v>4.52941176470588</v>
       </c>
       <c r="G223" t="n">
-        <v>-4.10671950043478</v>
+        <v>-4.129480363574</v>
       </c>
     </row>
     <row r="224">
@@ -8039,10 +8039,10 @@
         <v>9</v>
       </c>
       <c r="F224" t="n">
-        <v>4.79792011344836</v>
+        <v>4.7945205479452</v>
       </c>
       <c r="G224" t="n">
-        <v>-5.17253778906272</v>
+        <v>-5.17593735456587</v>
       </c>
     </row>
     <row r="225">
@@ -8062,10 +8062,10 @@
         <v>9</v>
       </c>
       <c r="F225" t="n">
-        <v>3.89395194697597</v>
+        <v>3.89072847682119</v>
       </c>
       <c r="G225" t="n">
-        <v>-5.90820632640532</v>
+        <v>-5.9114297965601</v>
       </c>
     </row>
     <row r="226">
@@ -8085,10 +8085,10 @@
         <v>9</v>
       </c>
       <c r="F226" t="n">
-        <v>3.87575590984057</v>
+        <v>3.88751033912324</v>
       </c>
       <c r="G226" t="n">
-        <v>-4.11780632191909</v>
+        <v>-4.10605189263641</v>
       </c>
     </row>
     <row r="227">
@@ -8108,10 +8108,10 @@
         <v>9</v>
       </c>
       <c r="F227" t="n">
-        <v>5.59234731420162</v>
+        <v>5.58926273211987</v>
       </c>
       <c r="G227" t="n">
-        <v>-2.92949355943333</v>
+        <v>-2.93257814151507</v>
       </c>
     </row>
     <row r="228">
@@ -8131,10 +8131,10 @@
         <v>9</v>
       </c>
       <c r="F228" t="n">
-        <v>5.15053967051695</v>
+        <v>5.14274910190962</v>
       </c>
       <c r="G228" t="n">
-        <v>-3.90233214386114</v>
+        <v>-3.91012271246847</v>
       </c>
     </row>
     <row r="229">
@@ -8154,10 +8154,10 @@
         <v>9</v>
       </c>
       <c r="F229" t="n">
-        <v>5.58614207063247</v>
+        <v>5.57528647054882</v>
       </c>
       <c r="G229" t="n">
-        <v>-3.41030310300713</v>
+        <v>-3.42115870309078</v>
       </c>
     </row>
     <row r="230">
@@ -8177,10 +8177,10 @@
         <v>9</v>
       </c>
       <c r="F230" t="n">
-        <v>4.24328147100424</v>
+        <v>4.23280423280423</v>
       </c>
       <c r="G230" t="n">
-        <v>-4.36007048430302</v>
+        <v>-4.37054772250303</v>
       </c>
     </row>
     <row r="231">
@@ -8200,10 +8200,10 @@
         <v>9</v>
       </c>
       <c r="F231" t="n">
-        <v>4.07934131736527</v>
+        <v>4.0103016924209</v>
       </c>
       <c r="G231" t="n">
-        <v>-3.33098584069543</v>
+        <v>-3.4000254656398</v>
       </c>
     </row>
     <row r="232">
@@ -8223,10 +8223,10 @@
         <v>9</v>
       </c>
       <c r="F232" t="n">
-        <v>4.49521002210759</v>
+        <v>4.49024659550975</v>
       </c>
       <c r="G232" t="n">
-        <v>-3.11096758407002</v>
+        <v>-3.11593101066785</v>
       </c>
     </row>
     <row r="233">
@@ -8246,10 +8246,10 @@
         <v>9</v>
       </c>
       <c r="F233" t="n">
-        <v>4.36886492465091</v>
+        <v>4.35922196164988</v>
       </c>
       <c r="G233" t="n">
-        <v>-3.49163138654963</v>
+        <v>-3.50127434955065</v>
       </c>
     </row>
     <row r="234">
@@ -8269,10 +8269,10 @@
         <v>9</v>
       </c>
       <c r="F234" t="n">
-        <v>3.58764759309718</v>
+        <v>3.59254206457481</v>
       </c>
       <c r="G234" t="n">
-        <v>-1.9349448304537</v>
+        <v>-1.93005035897608</v>
       </c>
     </row>
     <row r="235">
@@ -8292,10 +8292,10 @@
         <v>9</v>
       </c>
       <c r="F235" t="n">
-        <v>2.71041369472183</v>
+        <v>2.7249910362137</v>
       </c>
       <c r="G235" t="n">
-        <v>-3.88799358627931</v>
+        <v>-3.87341624478744</v>
       </c>
     </row>
     <row r="236">
@@ -8315,10 +8315,10 @@
         <v>9</v>
       </c>
       <c r="F236" t="n">
-        <v>3.71702637889688</v>
+        <v>3.72372372372372</v>
       </c>
       <c r="G236" t="n">
-        <v>-3.26567701636257</v>
+        <v>-3.25897967153573</v>
       </c>
     </row>
     <row r="237">
@@ -8338,10 +8338,10 @@
         <v>9</v>
       </c>
       <c r="F237" t="n">
-        <v>4.14443988510464</v>
+        <v>4.12329046744234</v>
       </c>
       <c r="G237" t="n">
-        <v>-3.64722678156203</v>
+        <v>-3.66837619922433</v>
       </c>
     </row>
     <row r="238">
@@ -8361,10 +8361,10 @@
         <v>9</v>
       </c>
       <c r="F238" t="n">
-        <v>4.53580901856764</v>
+        <v>4.50474183350896</v>
       </c>
       <c r="G238" t="n">
-        <v>-3.00986214902569</v>
+        <v>-3.04092933408437</v>
       </c>
     </row>
     <row r="239">
@@ -8407,10 +8407,10 @@
         <v>9</v>
       </c>
       <c r="F240" t="n">
-        <v>4.59593370920895</v>
+        <v>4.59436379163108</v>
       </c>
       <c r="G240" t="n">
-        <v>-2.77773421791377</v>
+        <v>-2.77930413549164</v>
       </c>
     </row>
     <row r="241">
@@ -8430,10 +8430,10 @@
         <v>9</v>
       </c>
       <c r="F241" t="n">
-        <v>3.57941834451902</v>
+        <v>3.56744704570792</v>
       </c>
       <c r="G241" t="n">
-        <v>-3.87765058043982</v>
+        <v>-3.88962187925092</v>
       </c>
     </row>
     <row r="242">
@@ -8453,10 +8453,10 @@
         <v>9</v>
       </c>
       <c r="F242" t="n">
-        <v>4.03877221324717</v>
+        <v>4.03063280935107</v>
       </c>
       <c r="G242" t="n">
-        <v>-1.39601039544848</v>
+        <v>-1.40414979934458</v>
       </c>
     </row>
     <row r="243">
@@ -8476,10 +8476,10 @@
         <v>9</v>
       </c>
       <c r="F243" t="n">
-        <v>8.46846099614316</v>
+        <v>8.4596901151711</v>
       </c>
       <c r="G243" t="n">
-        <v>-1.88786407516203</v>
+        <v>-1.89663495613409</v>
       </c>
     </row>
     <row r="244">
@@ -8499,10 +8499,10 @@
         <v>9</v>
       </c>
       <c r="F244" t="n">
-        <v>7.531447800657</v>
+        <v>7.52180523325598</v>
       </c>
       <c r="G244" t="n">
-        <v>-2.43715502508868</v>
+        <v>-2.4467975924897</v>
       </c>
     </row>
     <row r="245">
@@ -8522,10 +8522,10 @@
         <v>9</v>
       </c>
       <c r="F245" t="n">
-        <v>5.32500918105031</v>
+        <v>5.32892319000368</v>
       </c>
       <c r="G245" t="n">
-        <v>-2.89738706013998</v>
+        <v>-2.89347305118662</v>
       </c>
     </row>
     <row r="246">
@@ -8545,10 +8545,10 @@
         <v>9</v>
       </c>
       <c r="F246" t="n">
-        <v>5.73069730162971</v>
+        <v>5.72534365407714</v>
       </c>
       <c r="G246" t="n">
-        <v>-3.394046024859</v>
+        <v>-3.39939967241157</v>
       </c>
     </row>
     <row r="247">
@@ -8568,10 +8568,10 @@
         <v>9</v>
       </c>
       <c r="F247" t="n">
-        <v>6.73323823109843</v>
+        <v>6.73035790674462</v>
       </c>
       <c r="G247" t="n">
-        <v>-1.6000951022349</v>
+        <v>-1.60297542658871</v>
       </c>
     </row>
     <row r="248">
@@ -8591,10 +8591,10 @@
         <v>9</v>
       </c>
       <c r="F248" t="n">
-        <v>8.21048703116253</v>
+        <v>8.19214299013219</v>
       </c>
       <c r="G248" t="n">
-        <v>-1.84445802378252</v>
+        <v>-1.86280206481286</v>
       </c>
     </row>
     <row r="249">
@@ -8614,10 +8614,10 @@
         <v>9</v>
       </c>
       <c r="F249" t="n">
-        <v>8.17610062893082</v>
+        <v>8.12217979868101</v>
       </c>
       <c r="G249" t="n">
-        <v>-4.41273185837883</v>
+        <v>-4.46665268862863</v>
       </c>
     </row>
     <row r="250">
@@ -8637,10 +8637,10 @@
         <v>9</v>
       </c>
       <c r="F250" t="n">
-        <v>12.44607138188</v>
+        <v>12.3990622557958</v>
       </c>
       <c r="G250" t="n">
-        <v>-1.99210329917988</v>
+        <v>-2.03911242526408</v>
       </c>
     </row>
     <row r="251">
@@ -8660,10 +8660,10 @@
         <v>9</v>
       </c>
       <c r="F251" t="n">
-        <v>10.8243408610524</v>
+        <v>10.8159181858604</v>
       </c>
       <c r="G251" t="n">
-        <v>-2.05865317555052</v>
+        <v>-2.06707585074254</v>
       </c>
     </row>
     <row r="252">
@@ -8683,10 +8683,10 @@
         <v>9</v>
       </c>
       <c r="F252" t="n">
-        <v>7.97808673234509</v>
+        <v>7.95647582755613</v>
       </c>
       <c r="G252" t="n">
-        <v>-2.10280393478547</v>
+        <v>-2.12441483957443</v>
       </c>
     </row>
     <row r="253">
@@ -8706,10 +8706,10 @@
         <v>9</v>
       </c>
       <c r="F253" t="n">
-        <v>7.31292517006803</v>
+        <v>7.28350624603006</v>
       </c>
       <c r="G253" t="n">
-        <v>-3.07503327809818</v>
+        <v>-3.10445220213614</v>
       </c>
     </row>
     <row r="254">
@@ -8729,10 +8729,10 @@
         <v>9</v>
       </c>
       <c r="F254" t="n">
-        <v>13.7340091720975</v>
+        <v>13.700939080183</v>
       </c>
       <c r="G254" t="n">
-        <v>-1.4209589227065</v>
+        <v>-1.45402901462101</v>
       </c>
     </row>
     <row r="255">
@@ -8752,10 +8752,10 @@
         <v>9</v>
       </c>
       <c r="F255" t="n">
-        <v>5.51704217215482</v>
+        <v>5.50908566483992</v>
       </c>
       <c r="G255" t="n">
-        <v>-3.06181398035817</v>
+        <v>-3.06977048767308</v>
       </c>
     </row>
     <row r="256">
@@ -8775,10 +8775,10 @@
         <v>9</v>
       </c>
       <c r="F256" t="n">
-        <v>6.53902618057255</v>
+        <v>6.52028057334553</v>
       </c>
       <c r="G256" t="n">
-        <v>-1.62889934199903</v>
+        <v>-1.64764494922605</v>
       </c>
     </row>
     <row r="257">
@@ -8798,10 +8798,10 @@
         <v>9</v>
       </c>
       <c r="F257" t="n">
-        <v>4.8902027027027</v>
+        <v>4.86186917457385</v>
       </c>
       <c r="G257" t="n">
-        <v>-2.32810715645223</v>
+        <v>-2.35644068458108</v>
       </c>
     </row>
     <row r="258">
@@ -8821,10 +8821,10 @@
         <v>9</v>
       </c>
       <c r="F258" t="n">
-        <v>5.0077675226172</v>
+        <v>5.00182548375319</v>
       </c>
       <c r="G258" t="n">
-        <v>-1.80096888201628</v>
+        <v>-1.80691092088028</v>
       </c>
     </row>
     <row r="259">
@@ -8844,10 +8844,10 @@
         <v>9</v>
       </c>
       <c r="F259" t="n">
-        <v>4.78981406628941</v>
+        <v>4.76861167002012</v>
       </c>
       <c r="G259" t="n">
-        <v>-2.90405108860024</v>
+        <v>-2.92525348486953</v>
       </c>
     </row>
     <row r="260">
@@ -8867,10 +8867,10 @@
         <v>9</v>
       </c>
       <c r="F260" t="n">
-        <v>6.13222612583839</v>
+        <v>6.10395803528851</v>
       </c>
       <c r="G260" t="n">
-        <v>-2.48976752111366</v>
+        <v>-2.51803561166354</v>
       </c>
     </row>
     <row r="261">
@@ -8890,10 +8890,10 @@
         <v>9</v>
       </c>
       <c r="F261" t="n">
-        <v>4.80310262529833</v>
+        <v>4.77461447212337</v>
       </c>
       <c r="G261" t="n">
-        <v>-1.63254093905811</v>
+        <v>-1.66102909223307</v>
       </c>
     </row>
     <row r="262">
@@ -8913,10 +8913,10 @@
         <v>9</v>
       </c>
       <c r="F262" t="n">
-        <v>3.62577742490406</v>
+        <v>3.61429890515763</v>
       </c>
       <c r="G262" t="n">
-        <v>-2.93726229875742</v>
+        <v>-2.94874081850385</v>
       </c>
     </row>
     <row r="263">
@@ -8936,10 +8936,10 @@
         <v>9</v>
       </c>
       <c r="F263" t="n">
-        <v>4.98960498960499</v>
+        <v>4.97667185069984</v>
       </c>
       <c r="G263" t="n">
-        <v>-3.45529717311386</v>
+        <v>-3.468230312019</v>
       </c>
     </row>
     <row r="264">
@@ -8959,10 +8959,10 @@
         <v>9</v>
       </c>
       <c r="F264" t="n">
-        <v>3.62800204394481</v>
+        <v>3.596757852077</v>
       </c>
       <c r="G264" t="n">
-        <v>-2.01044347999689</v>
+        <v>-2.04168767186471</v>
       </c>
     </row>
     <row r="265">
@@ -8982,10 +8982,10 @@
         <v>9</v>
       </c>
       <c r="F265" t="n">
-        <v>4.0323941285642</v>
+        <v>4.02492421690805</v>
       </c>
       <c r="G265" t="n">
-        <v>-3.48849723633831</v>
+        <v>-3.49596714799446</v>
       </c>
     </row>
     <row r="266">
@@ -9005,10 +9005,10 @@
         <v>9</v>
       </c>
       <c r="F266" t="n">
-        <v>3.6361804995971</v>
+        <v>3.65940192600101</v>
       </c>
       <c r="G266" t="n">
-        <v>-4.05536572887251</v>
+        <v>-4.0321443024686</v>
       </c>
     </row>
     <row r="267">
@@ -9028,10 +9028,10 @@
         <v>9</v>
       </c>
       <c r="F267" t="n">
-        <v>3.46771919932337</v>
+        <v>3.46674182638106</v>
       </c>
       <c r="G267" t="n">
-        <v>-3.05718613129125</v>
+        <v>-3.05816350423356</v>
       </c>
     </row>
     <row r="268">
@@ -9051,10 +9051,10 @@
         <v>9</v>
       </c>
       <c r="F268" t="n">
-        <v>3.23547034152187</v>
+        <v>3.26678765880218</v>
       </c>
       <c r="G268" t="n">
-        <v>-4.12004629595624</v>
+        <v>-4.08872897867593</v>
       </c>
     </row>
     <row r="269">
@@ -9074,10 +9074,10 @@
         <v>9</v>
       </c>
       <c r="F269" t="n">
-        <v>3.23914541695382</v>
+        <v>3.26388888888889</v>
       </c>
       <c r="G269" t="n">
-        <v>-2.30392574409486</v>
+        <v>-2.2791822721598</v>
       </c>
     </row>
     <row r="270">
@@ -9097,10 +9097,10 @@
         <v>9</v>
       </c>
       <c r="F270" t="n">
-        <v>3.96039603960396</v>
+        <v>3.97727272727273</v>
       </c>
       <c r="G270" t="n">
-        <v>-2.65830899636726</v>
+        <v>-2.6414323086985</v>
       </c>
     </row>
     <row r="271">
@@ -9120,10 +9120,10 @@
         <v>9</v>
       </c>
       <c r="F271" t="n">
-        <v>4.4861963190184</v>
+        <v>4.48963929393707</v>
       </c>
       <c r="G271" t="n">
-        <v>-3.15638923231239</v>
+        <v>-3.15294625739373</v>
       </c>
     </row>
     <row r="272">
@@ -9143,10 +9143,10 @@
         <v>9</v>
       </c>
       <c r="F272" t="n">
-        <v>3.23337035665803</v>
+        <v>3.23177500925126</v>
       </c>
       <c r="G272" t="n">
-        <v>-3.06133636723324</v>
+        <v>-3.06293171464001</v>
       </c>
     </row>
     <row r="273">
@@ -9166,10 +9166,10 @@
         <v>9</v>
       </c>
       <c r="F273" t="n">
-        <v>2.89954337899543</v>
+        <v>2.90684367132067</v>
       </c>
       <c r="G273" t="n">
-        <v>-2.32921479093921</v>
+        <v>-2.32191449861397</v>
       </c>
     </row>
     <row r="274">
@@ -9189,10 +9189,10 @@
         <v>9</v>
       </c>
       <c r="F274" t="n">
-        <v>3.2624633431085</v>
+        <v>3.26725403817915</v>
       </c>
       <c r="G274" t="n">
-        <v>-2.985212372771</v>
+        <v>-2.98042167770036</v>
       </c>
     </row>
     <row r="275">
@@ -9212,10 +9212,10 @@
         <v>9</v>
       </c>
       <c r="F275" t="n">
-        <v>6.48029591691563</v>
+        <v>6.46833285998296</v>
       </c>
       <c r="G275" t="n">
-        <v>-2.49459086776942</v>
+        <v>-2.5065539247021</v>
       </c>
     </row>
     <row r="276">
@@ -9235,10 +9235,10 @@
         <v>9</v>
       </c>
       <c r="F276" t="n">
-        <v>5.23274478330658</v>
+        <v>5.21391443422631</v>
       </c>
       <c r="G276" t="n">
-        <v>-1.84954545330813</v>
+        <v>-1.8683758023884</v>
       </c>
     </row>
     <row r="277">
@@ -9258,10 +9258,10 @@
         <v>9</v>
       </c>
       <c r="F277" t="n">
-        <v>4.63898241676019</v>
+        <v>4.60966542750929</v>
       </c>
       <c r="G277" t="n">
-        <v>-2.21082136490231</v>
+        <v>-2.24013835415321</v>
       </c>
     </row>
     <row r="278">
@@ -9281,10 +9281,10 @@
         <v>9</v>
       </c>
       <c r="F278" t="n">
-        <v>4.2466048717396</v>
+        <v>4.23929416828061</v>
       </c>
       <c r="G278" t="n">
-        <v>-1.74337552468819</v>
+        <v>-1.75068622814718</v>
       </c>
     </row>
     <row r="279">
@@ -9327,10 +9327,10 @@
         <v>9</v>
       </c>
       <c r="F280" t="n">
-        <v>5.12470105910489</v>
+        <v>5.09683995922528</v>
       </c>
       <c r="G280" t="n">
-        <v>-3.20590985236195</v>
+        <v>-3.23377095224156</v>
       </c>
     </row>
     <row r="281">
@@ -9350,10 +9350,10 @@
         <v>9</v>
       </c>
       <c r="F281" t="n">
-        <v>4.49050086355786</v>
+        <v>4.49826989619377</v>
       </c>
       <c r="G281" t="n">
-        <v>-2.18926338005707</v>
+        <v>-2.18149434742116</v>
       </c>
     </row>
     <row r="282">
@@ -9373,10 +9373,10 @@
         <v>9</v>
       </c>
       <c r="F282" t="n">
-        <v>4.94669509594883</v>
+        <v>4.92359932088285</v>
       </c>
       <c r="G282" t="n">
-        <v>-2.20203128038642</v>
+        <v>-2.2251270554524</v>
       </c>
     </row>
     <row r="283">
@@ -9396,10 +9396,10 @@
         <v>9</v>
       </c>
       <c r="F283" t="n">
-        <v>3.78803560339474</v>
+        <v>3.76465747788521</v>
       </c>
       <c r="G283" t="n">
-        <v>-2.84472126333974</v>
+        <v>-2.86809938884928</v>
       </c>
     </row>
     <row r="284">
@@ -9419,10 +9419,10 @@
         <v>9</v>
       </c>
       <c r="F284" t="n">
-        <v>4.4375</v>
+        <v>4.41542288557214</v>
       </c>
       <c r="G284" t="n">
-        <v>-3.14330313418218</v>
+        <v>-3.16538024861003</v>
       </c>
     </row>
     <row r="285">
@@ -9442,10 +9442,10 @@
         <v>9</v>
       </c>
       <c r="F285" t="n">
-        <v>6.44007155635063</v>
+        <v>6.43000669792364</v>
       </c>
       <c r="G285" t="n">
-        <v>-2.12759100955447</v>
+        <v>-2.13765586798145</v>
       </c>
     </row>
     <row r="286">
@@ -9465,10 +9465,10 @@
         <v>9</v>
       </c>
       <c r="F286" t="n">
-        <v>6.17240776359503</v>
+        <v>6.14233513137289</v>
       </c>
       <c r="G286" t="n">
-        <v>-2.95608000767606</v>
+        <v>-2.98615263989821</v>
       </c>
     </row>
     <row r="287">
@@ -9488,10 +9488,10 @@
         <v>9</v>
       </c>
       <c r="F287" t="n">
-        <v>3.96939263510282</v>
+        <v>3.96749521988528</v>
       </c>
       <c r="G287" t="n">
-        <v>-3.18855150946418</v>
+        <v>-3.19044892468173</v>
       </c>
     </row>
     <row r="288">
@@ -9511,10 +9511,10 @@
         <v>9</v>
       </c>
       <c r="F288" t="n">
-        <v>5.42986425339367</v>
+        <v>5.41516245487365</v>
       </c>
       <c r="G288" t="n">
-        <v>-2.19345413225656</v>
+        <v>-2.20815593077658</v>
       </c>
     </row>
     <row r="289">
@@ -9534,10 +9534,10 @@
         <v>9</v>
       </c>
       <c r="F289" t="n">
-        <v>2.82167042889391</v>
+        <v>2.8169014084507</v>
       </c>
       <c r="G289" t="n">
-        <v>-3.31914481726808</v>
+        <v>-3.32391383771129</v>
       </c>
     </row>
     <row r="290">
@@ -9557,10 +9557,10 @@
         <v>9</v>
       </c>
       <c r="F290" t="n">
-        <v>5.52486187845304</v>
+        <v>5.5379746835443</v>
       </c>
       <c r="G290" t="n">
-        <v>-3.58031865529892</v>
+        <v>-3.56720585020766</v>
       </c>
     </row>
     <row r="291">
@@ -9580,10 +9580,10 @@
         <v>9</v>
       </c>
       <c r="F291" t="n">
-        <v>3.79170879676441</v>
+        <v>3.78979282465892</v>
       </c>
       <c r="G291" t="n">
-        <v>-3.20417597689814</v>
+        <v>-3.20609194900363</v>
       </c>
     </row>
     <row r="292">
@@ -9603,10 +9603,10 @@
         <v>9</v>
       </c>
       <c r="F292" t="n">
-        <v>6.24808575803982</v>
+        <v>6.22710622710623</v>
       </c>
       <c r="G292" t="n">
-        <v>-2.63952892085927</v>
+        <v>-2.66050845179285</v>
       </c>
     </row>
     <row r="293">
@@ -9626,10 +9626,10 @@
         <v>9</v>
       </c>
       <c r="F293" t="n">
-        <v>5.99870298313878</v>
+        <v>5.96966763472088</v>
       </c>
       <c r="G293" t="n">
-        <v>-3.32306846312941</v>
+        <v>-3.35210381154732</v>
       </c>
     </row>
     <row r="294">
@@ -9649,10 +9649,10 @@
         <v>9</v>
       </c>
       <c r="F294" t="n">
-        <v>4.25531914893617</v>
+        <v>4.23641954219337</v>
       </c>
       <c r="G294" t="n">
-        <v>-2.18230593445276</v>
+        <v>-2.20120554119555</v>
       </c>
     </row>
     <row r="295">
@@ -9672,10 +9672,10 @@
         <v>9</v>
       </c>
       <c r="F295" t="n">
-        <v>6.36442894507411</v>
+        <v>6.32947976878613</v>
       </c>
       <c r="G295" t="n">
-        <v>-0.980825525352303</v>
+        <v>-1.01577470164028</v>
       </c>
     </row>
     <row r="296">
@@ -9695,10 +9695,10 @@
         <v>9</v>
       </c>
       <c r="F296" t="n">
-        <v>4.84165146741834</v>
+        <v>4.82405418800595</v>
       </c>
       <c r="G296" t="n">
-        <v>-4.67832275938579</v>
+        <v>-4.69592003879818</v>
       </c>
     </row>
     <row r="297">
@@ -9718,10 +9718,10 @@
         <v>9</v>
       </c>
       <c r="F297" t="n">
-        <v>6.27142411966345</v>
+        <v>6.25</v>
       </c>
       <c r="G297" t="n">
-        <v>-3.6706313850636</v>
+        <v>-3.69205550472705</v>
       </c>
     </row>
     <row r="298">
@@ -9741,10 +9741,10 @@
         <v>9</v>
       </c>
       <c r="F298" t="n">
-        <v>7.64828303850156</v>
+        <v>7.59591784007234</v>
       </c>
       <c r="G298" t="n">
-        <v>-2.65042962241582</v>
+        <v>-2.70279482084504</v>
       </c>
     </row>
     <row r="299">
@@ -9764,10 +9764,10 @@
         <v>9</v>
       </c>
       <c r="F299" t="n">
-        <v>4.9133361982524</v>
+        <v>4.88186734984344</v>
       </c>
       <c r="G299" t="n">
-        <v>-3.43512115201983</v>
+        <v>-3.46659000042879</v>
       </c>
     </row>
     <row r="300">
@@ -9787,10 +9787,10 @@
         <v>9</v>
       </c>
       <c r="F300" t="n">
-        <v>4.50268817204301</v>
+        <v>4.46815605201734</v>
       </c>
       <c r="G300" t="n">
-        <v>-3.80891547854369</v>
+        <v>-3.84344759856936</v>
       </c>
     </row>
     <row r="301">
@@ -9810,10 +9810,10 @@
         <v>9</v>
       </c>
       <c r="F301" t="n">
-        <v>8.8629077880445</v>
+        <v>8.85622762389297</v>
       </c>
       <c r="G301" t="n">
-        <v>-2.91387792624121</v>
+        <v>-2.92055809039274</v>
       </c>
     </row>
     <row r="302">
@@ -9833,10 +9833,10 @@
         <v>9</v>
       </c>
       <c r="F302" t="n">
-        <v>7.09821428571429</v>
+        <v>7.09082800654081</v>
       </c>
       <c r="G302" t="n">
-        <v>-3.34265345396381</v>
+        <v>-3.35003973313729</v>
       </c>
     </row>
     <row r="303">
@@ -9856,10 +9856,10 @@
         <v>9</v>
       </c>
       <c r="F303" t="n">
-        <v>7.665967082735</v>
+        <v>7.64738292011019</v>
       </c>
       <c r="G303" t="n">
-        <v>-1.97865186420952</v>
+        <v>-1.99723602683434</v>
       </c>
     </row>
     <row r="304">
@@ -9879,10 +9879,10 @@
         <v>9</v>
       </c>
       <c r="F304" t="n">
-        <v>7.01388888888889</v>
+        <v>6.99785214439133</v>
       </c>
       <c r="G304" t="n">
-        <v>-3.41510519395135</v>
+        <v>-3.43114193844891</v>
       </c>
     </row>
     <row r="305">
@@ -9902,10 +9902,10 @@
         <v>9</v>
       </c>
       <c r="F305" t="n">
-        <v>7.19548133595285</v>
+        <v>7.17785399314062</v>
       </c>
       <c r="G305" t="n">
-        <v>-2.60391917131024</v>
+        <v>-2.62154651412247</v>
       </c>
     </row>
     <row r="306">
@@ -9925,10 +9925,10 @@
         <v>9</v>
       </c>
       <c r="F306" t="n">
-        <v>5.52076466710613</v>
+        <v>5.50896234172011</v>
       </c>
       <c r="G306" t="n">
-        <v>-2.57189036881236</v>
+        <v>-2.58369269419837</v>
       </c>
     </row>
     <row r="307">
@@ -9948,10 +9948,10 @@
         <v>9</v>
       </c>
       <c r="F307" t="n">
-        <v>6.36686390532544</v>
+        <v>6.35933806146572</v>
       </c>
       <c r="G307" t="n">
-        <v>-2.75602024503727</v>
+        <v>-2.763546088897</v>
       </c>
     </row>
     <row r="308">
@@ -9971,10 +9971,10 @@
         <v>9</v>
       </c>
       <c r="F308" t="n">
-        <v>5.15790623975522</v>
+        <v>5.13322457857531</v>
       </c>
       <c r="G308" t="n">
-        <v>-1.98205730085649</v>
+        <v>-2.00673896203639</v>
       </c>
     </row>
     <row r="309">
@@ -9994,10 +9994,10 @@
         <v>9</v>
       </c>
       <c r="F309" t="n">
-        <v>4.59600347523892</v>
+        <v>4.58286407346444</v>
       </c>
       <c r="G309" t="n">
-        <v>-3.12488834969914</v>
+        <v>-3.13802775147363</v>
       </c>
     </row>
     <row r="310">
@@ -10017,10 +10017,10 @@
         <v>9</v>
       </c>
       <c r="F310" t="n">
-        <v>5.23665659617321</v>
+        <v>5.22788203753351</v>
       </c>
       <c r="G310" t="n">
-        <v>-2.08494760008949</v>
+        <v>-2.09372215872919</v>
       </c>
     </row>
     <row r="311">
@@ -10040,10 +10040,10 @@
         <v>9</v>
       </c>
       <c r="F311" t="n">
-        <v>6.44614079728583</v>
+        <v>6.42978003384095</v>
       </c>
       <c r="G311" t="n">
-        <v>-3.21617010150111</v>
+        <v>-3.232530864946</v>
       </c>
     </row>
     <row r="312">
@@ -10063,10 +10063,10 @@
         <v>9</v>
       </c>
       <c r="F312" t="n">
-        <v>6.15584898642366</v>
+        <v>6.14442175607945</v>
       </c>
       <c r="G312" t="n">
-        <v>-2.49083269785983</v>
+        <v>-2.50225992820403</v>
       </c>
     </row>
     <row r="313">
@@ -10086,10 +10086,10 @@
         <v>9</v>
       </c>
       <c r="F313" t="n">
-        <v>5.28928776016804</v>
+        <v>5.27468342378368</v>
       </c>
       <c r="G313" t="n">
-        <v>-2.65611583740948</v>
+        <v>-2.67072017379383</v>
       </c>
     </row>
     <row r="314">
@@ -10109,10 +10109,10 @@
         <v>9</v>
       </c>
       <c r="F314" t="n">
-        <v>4.24781732706514</v>
+        <v>4.24211938296445</v>
       </c>
       <c r="G314" t="n">
-        <v>-3.0161454388923</v>
+        <v>-3.02184338299299</v>
       </c>
     </row>
     <row r="315">
@@ -10132,10 +10132,10 @@
         <v>9</v>
       </c>
       <c r="F315" t="n">
-        <v>3.61737358298306</v>
+        <v>3.6072653372285</v>
       </c>
       <c r="G315" t="n">
-        <v>-1.54479527069359</v>
+        <v>-1.55490351644815</v>
       </c>
     </row>
     <row r="316">
@@ -10155,10 +10155,10 @@
         <v>9</v>
       </c>
       <c r="F316" t="n">
-        <v>4.01090342679128</v>
+        <v>3.99844720496894</v>
       </c>
       <c r="G316" t="n">
-        <v>-2.65834822113428</v>
+        <v>-2.67080444295661</v>
       </c>
     </row>
     <row r="317">
@@ -10178,10 +10178,10 @@
         <v>9</v>
       </c>
       <c r="F317" t="n">
-        <v>3.02711239799947</v>
+        <v>3.01678908709339</v>
       </c>
       <c r="G317" t="n">
-        <v>-3.00479188913911</v>
+        <v>-3.0151152000452</v>
       </c>
     </row>
     <row r="318">
@@ -10201,10 +10201,10 @@
         <v>9</v>
       </c>
       <c r="F318" t="n">
-        <v>4.43392165303487</v>
+        <v>4.41617836215521</v>
       </c>
       <c r="G318" t="n">
-        <v>-2.25602248104334</v>
+        <v>-2.273765771923</v>
       </c>
     </row>
     <row r="319">
@@ -10224,10 +10224,10 @@
         <v>9</v>
       </c>
       <c r="F319" t="n">
-        <v>5.907025515554</v>
+        <v>5.91322603219034</v>
       </c>
       <c r="G319" t="n">
-        <v>-1.44287096477726</v>
+        <v>-1.43667044814092</v>
       </c>
     </row>
     <row r="320">
@@ -10247,10 +10247,10 @@
         <v>9</v>
       </c>
       <c r="F320" t="n">
-        <v>4.54118971664477</v>
+        <v>4.53353315848632</v>
       </c>
       <c r="G320" t="n">
-        <v>-2.44075033176334</v>
+        <v>-2.44840688992179</v>
       </c>
     </row>
     <row r="321">
@@ -10270,10 +10270,10 @@
         <v>9</v>
       </c>
       <c r="F321" t="n">
-        <v>5.15596330275229</v>
+        <v>5.14934945940993</v>
       </c>
       <c r="G321" t="n">
-        <v>-2.17387962918488</v>
+        <v>-2.18049347252724</v>
       </c>
     </row>
     <row r="322">
@@ -10293,10 +10293,10 @@
         <v>9</v>
       </c>
       <c r="F322" t="n">
-        <v>6.00949729818241</v>
+        <v>6.01048149361284</v>
       </c>
       <c r="G322" t="n">
-        <v>-2.11490765262685</v>
+        <v>-2.11392345719643</v>
       </c>
     </row>
     <row r="323">
@@ -10316,10 +10316,10 @@
         <v>9</v>
       </c>
       <c r="F323" t="n">
-        <v>5.00140488901377</v>
+        <v>4.97206703910615</v>
       </c>
       <c r="G323" t="n">
-        <v>-3.88513306390874</v>
+        <v>-3.91447091381636</v>
       </c>
     </row>
     <row r="324">
@@ -10339,10 +10339,10 @@
         <v>9</v>
       </c>
       <c r="F324" t="n">
-        <v>5.05573374829306</v>
+        <v>5.03749644021137</v>
       </c>
       <c r="G324" t="n">
-        <v>-2.26869283009427</v>
+        <v>-2.28693013817595</v>
       </c>
     </row>
     <row r="325">
@@ -10362,10 +10362,10 @@
         <v>9</v>
       </c>
       <c r="F325" t="n">
-        <v>4.85470320892439</v>
+        <v>4.83804556684052</v>
       </c>
       <c r="G325" t="n">
-        <v>-2.80729328844864</v>
+        <v>-2.82395093053251</v>
       </c>
     </row>
     <row r="326">
@@ -10385,10 +10385,10 @@
         <v>9</v>
       </c>
       <c r="F326" t="n">
-        <v>5.32030401737242</v>
+        <v>5.2801724137931</v>
       </c>
       <c r="G326" t="n">
-        <v>-2.93454362805694</v>
+        <v>-2.97467523163626</v>
       </c>
     </row>
     <row r="327">
@@ -10408,10 +10408,10 @@
         <v>9</v>
       </c>
       <c r="F327" t="n">
-        <v>3.42392467365718</v>
+        <v>3.42465753424658</v>
       </c>
       <c r="G327" t="n">
-        <v>-4.07127071391489</v>
+        <v>-4.07053785332549</v>
       </c>
     </row>
     <row r="328">
@@ -10431,10 +10431,10 @@
         <v>9</v>
       </c>
       <c r="F328" t="n">
-        <v>4.29260450160772</v>
+        <v>4.28640231176754</v>
       </c>
       <c r="G328" t="n">
-        <v>-2.83973641120105</v>
+        <v>-2.84593860104123</v>
       </c>
     </row>
     <row r="329">
@@ -10454,10 +10454,10 @@
         <v>9</v>
       </c>
       <c r="F329" t="n">
-        <v>3.77477857444116</v>
+        <v>3.77080261217611</v>
       </c>
       <c r="G329" t="n">
-        <v>-2.31455981578218</v>
+        <v>-2.31853577804723</v>
       </c>
     </row>
     <row r="330">
@@ -10477,10 +10477,10 @@
         <v>9</v>
       </c>
       <c r="F330" t="n">
-        <v>3.81495944728147</v>
+        <v>3.78652355396541</v>
       </c>
       <c r="G330" t="n">
-        <v>-2.80535494207766</v>
+        <v>-2.83379083539371</v>
       </c>
     </row>
     <row r="331">
@@ -10500,10 +10500,10 @@
         <v>9</v>
       </c>
       <c r="F331" t="n">
-        <v>3.125</v>
+        <v>3.1129900076864</v>
       </c>
       <c r="G331" t="n">
-        <v>-2.52259036144578</v>
+        <v>-2.53460035375939</v>
       </c>
     </row>
     <row r="332">
@@ -10523,10 +10523,10 @@
         <v>9</v>
       </c>
       <c r="F332" t="n">
-        <v>3.42897130860742</v>
+        <v>3.42178770949721</v>
       </c>
       <c r="G332" t="n">
-        <v>-4.06911591403987</v>
+        <v>-4.07629951315008</v>
       </c>
     </row>
     <row r="333">
@@ -10546,10 +10546,10 @@
         <v>9</v>
       </c>
       <c r="F333" t="n">
-        <v>4.48406743754965</v>
+        <v>4.46593406593407</v>
       </c>
       <c r="G333" t="n">
-        <v>-2.33529747655758</v>
+        <v>-2.35343084817317</v>
       </c>
     </row>
     <row r="334">
@@ -10569,10 +10569,10 @@
         <v>9</v>
       </c>
       <c r="F334" t="n">
-        <v>3.31253000480077</v>
+        <v>3.32050048123195</v>
       </c>
       <c r="G334" t="n">
-        <v>-2.94343943168443</v>
+        <v>-2.93546895525324</v>
       </c>
     </row>
     <row r="335">
@@ -10592,10 +10592,10 @@
         <v>9</v>
       </c>
       <c r="F335" t="n">
-        <v>3.5935085007728</v>
+        <v>3.57486065731309</v>
       </c>
       <c r="G335" t="n">
-        <v>-2.58402773111126</v>
+        <v>-2.60267557457097</v>
       </c>
     </row>
     <row r="336">
@@ -10615,10 +10615,10 @@
         <v>9</v>
       </c>
       <c r="F336" t="n">
-        <v>5.0661081293363</v>
+        <v>5.05090054815975</v>
       </c>
       <c r="G336" t="n">
-        <v>-1.79029549291467</v>
+        <v>-1.80550307409122</v>
       </c>
     </row>
     <row r="337">
@@ -10638,10 +10638,10 @@
         <v>9</v>
       </c>
       <c r="F337" t="n">
-        <v>3.98382204246714</v>
+        <v>3.96537842190016</v>
       </c>
       <c r="G337" t="n">
-        <v>-4.00958545650278</v>
+        <v>-4.02802907706976</v>
       </c>
     </row>
     <row r="338">
@@ -10661,10 +10661,10 @@
         <v>9</v>
       </c>
       <c r="F338" t="n">
-        <v>4.01199850018748</v>
+        <v>4.00299289188178</v>
       </c>
       <c r="G338" t="n">
-        <v>-3.02864259883943</v>
+        <v>-3.03764820714512</v>
       </c>
     </row>
     <row r="339">
@@ -10684,10 +10684,10 @@
         <v>9</v>
       </c>
       <c r="F339" t="n">
-        <v>7.00005220024012</v>
+        <v>6.9869223154275</v>
       </c>
       <c r="G339" t="n">
-        <v>-1.67701767352988</v>
+        <v>-1.6901475583425</v>
       </c>
     </row>
     <row r="340">
@@ -10707,10 +10707,10 @@
         <v>9</v>
       </c>
       <c r="F340" t="n">
-        <v>5.38835826275005</v>
+        <v>5.37866522755891</v>
       </c>
       <c r="G340" t="n">
-        <v>-2.01708535690354</v>
+        <v>-2.02677839209467</v>
       </c>
     </row>
     <row r="341">
@@ -10730,10 +10730,10 @@
         <v>9</v>
       </c>
       <c r="F341" t="n">
-        <v>5.81182558212911</v>
+        <v>5.80120937263794</v>
       </c>
       <c r="G341" t="n">
-        <v>-2.26469530118269</v>
+        <v>-2.27531151067386</v>
       </c>
     </row>
     <row r="342">
@@ -10753,10 +10753,10 @@
         <v>9</v>
       </c>
       <c r="F342" t="n">
-        <v>6.10129908042622</v>
+        <v>6.09107468123862</v>
       </c>
       <c r="G342" t="n">
-        <v>-2.34308398937976</v>
+        <v>-2.35330838856736</v>
       </c>
     </row>
     <row r="343">
@@ -10776,10 +10776,10 @@
         <v>9</v>
       </c>
       <c r="F343" t="n">
-        <v>5.5820476858345</v>
+        <v>5.56747178961112</v>
       </c>
       <c r="G343" t="n">
-        <v>-2.00766060088781</v>
+        <v>-2.0222364971112</v>
       </c>
     </row>
     <row r="344">
@@ -10799,10 +10799,10 @@
         <v>9</v>
       </c>
       <c r="F344" t="n">
-        <v>6.13706102966246</v>
+        <v>6.14964127092586</v>
       </c>
       <c r="G344" t="n">
-        <v>-2.82565662870737</v>
+        <v>-2.81307638744397</v>
       </c>
     </row>
     <row r="345">
@@ -10822,10 +10822,10 @@
         <v>9</v>
       </c>
       <c r="F345" t="n">
-        <v>4.40278249066848</v>
+        <v>4.38826414137144</v>
       </c>
       <c r="G345" t="n">
-        <v>-1.78700556328143</v>
+        <v>-1.80152391257846</v>
       </c>
     </row>
     <row r="346">
@@ -10845,10 +10845,10 @@
         <v>9</v>
       </c>
       <c r="F346" t="n">
-        <v>4.93444822958604</v>
+        <v>4.92123957582621</v>
       </c>
       <c r="G346" t="n">
-        <v>-2.00180563168888</v>
+        <v>-2.01501428544871</v>
       </c>
     </row>
     <row r="347">
@@ -10868,10 +10868,10 @@
         <v>9</v>
       </c>
       <c r="F347" t="n">
-        <v>4.03762662807525</v>
+        <v>4.03354055226254</v>
       </c>
       <c r="G347" t="n">
-        <v>-4.47271628460002</v>
+        <v>-4.47680236041273</v>
       </c>
     </row>
     <row r="348">
@@ -10891,10 +10891,10 @@
         <v>9</v>
       </c>
       <c r="F348" t="n">
-        <v>5.72404097208275</v>
+        <v>5.72749196141479</v>
       </c>
       <c r="G348" t="n">
-        <v>-3.98165721201243</v>
+        <v>-3.97820622268039</v>
       </c>
     </row>
     <row r="349">
@@ -10914,10 +10914,10 @@
         <v>9</v>
       </c>
       <c r="F349" t="n">
-        <v>4.90566037735849</v>
+        <v>4.8979022280106</v>
       </c>
       <c r="G349" t="n">
-        <v>-2.69287680264963</v>
+        <v>-2.70063495199752</v>
       </c>
     </row>
     <row r="350">
@@ -10937,10 +10937,10 @@
         <v>9</v>
       </c>
       <c r="F350" t="n">
-        <v>6.08056363914841</v>
+        <v>6.06616242646497</v>
       </c>
       <c r="G350" t="n">
-        <v>-2.56788540073342</v>
+        <v>-2.58228661341686</v>
       </c>
     </row>
     <row r="351">
@@ -10960,10 +10960,10 @@
         <v>9</v>
       </c>
       <c r="F351" t="n">
-        <v>7.29472466862379</v>
+        <v>7.29018492176387</v>
       </c>
       <c r="G351" t="n">
-        <v>-5.79184668476626</v>
+        <v>-5.79638643162618</v>
       </c>
     </row>
     <row r="352">
@@ -10983,10 +10983,10 @@
         <v>9</v>
       </c>
       <c r="F352" t="n">
-        <v>3.69496855345912</v>
+        <v>3.68844418285266</v>
       </c>
       <c r="G352" t="n">
-        <v>-1.67965326536985</v>
+        <v>-1.68617763597631</v>
       </c>
     </row>
     <row r="353">
@@ -11006,10 +11006,10 @@
         <v>9</v>
       </c>
       <c r="F353" t="n">
-        <v>5.47633495145631</v>
+        <v>5.46803998788246</v>
       </c>
       <c r="G353" t="n">
-        <v>-0.392802931160932</v>
+        <v>-0.401097894734782</v>
       </c>
     </row>
     <row r="354">
@@ -11029,10 +11029,10 @@
         <v>9</v>
       </c>
       <c r="F354" t="n">
-        <v>5.0864495375955</v>
+        <v>5.08542713567839</v>
       </c>
       <c r="G354" t="n">
-        <v>-1.17753256531278</v>
+        <v>-1.17855496722989</v>
       </c>
     </row>
     <row r="355">
@@ -11052,10 +11052,10 @@
         <v>9</v>
       </c>
       <c r="F355" t="n">
-        <v>4.41699811597237</v>
+        <v>4.39949958298582</v>
       </c>
       <c r="G355" t="n">
-        <v>-2.95082016996006</v>
+        <v>-2.96831870294661</v>
       </c>
     </row>
     <row r="356">
@@ -11075,10 +11075,10 @@
         <v>9</v>
       </c>
       <c r="F356" t="n">
-        <v>4.68547760807662</v>
+        <v>4.6794208893485</v>
       </c>
       <c r="G356" t="n">
-        <v>-1.34939051887912</v>
+        <v>-1.35544723760724</v>
       </c>
     </row>
     <row r="357">
@@ -11098,10 +11098,10 @@
         <v>9</v>
       </c>
       <c r="F357" t="n">
-        <v>4.1677466175937</v>
+        <v>4.14967741935484</v>
       </c>
       <c r="G357" t="n">
-        <v>-1.12885393612119</v>
+        <v>-1.14692313436004</v>
       </c>
     </row>
     <row r="358">
@@ -11144,10 +11144,10 @@
         <v>9</v>
       </c>
       <c r="F359" t="n">
-        <v>4.80179506357517</v>
+        <v>4.781054512958</v>
       </c>
       <c r="G359" t="n">
-        <v>-0.991758587995619</v>
+        <v>-1.01249913861279</v>
       </c>
     </row>
     <row r="360">
@@ -11167,10 +11167,10 @@
         <v>9</v>
       </c>
       <c r="F360" t="n">
-        <v>3.84923817161187</v>
+        <v>3.84384384384384</v>
       </c>
       <c r="G360" t="n">
-        <v>-3.7541681544222</v>
+        <v>-3.75956248219022</v>
       </c>
     </row>
     <row r="361">
@@ -11190,10 +11190,10 @@
         <v>9</v>
       </c>
       <c r="F361" t="n">
-        <v>4.74421263218062</v>
+        <v>4.73519064371969</v>
       </c>
       <c r="G361" t="n">
-        <v>-1.33539478330466</v>
+        <v>-1.34441677176559</v>
       </c>
     </row>
     <row r="362">
@@ -11213,10 +11213,10 @@
         <v>9</v>
       </c>
       <c r="F362" t="n">
-        <v>5.75883896865833</v>
+        <v>5.74199507389163</v>
       </c>
       <c r="G362" t="n">
-        <v>-0.995597207643903</v>
+        <v>-1.01244110241061</v>
       </c>
     </row>
     <row r="363">
@@ -11236,10 +11236,10 @@
         <v>9</v>
       </c>
       <c r="F363" t="n">
-        <v>4.1851616994293</v>
+        <v>4.17683753729319</v>
       </c>
       <c r="G363" t="n">
-        <v>-1.95098403403187</v>
+        <v>-1.95930819616798</v>
       </c>
     </row>
     <row r="364">
@@ -11259,10 +11259,10 @@
         <v>9</v>
       </c>
       <c r="F364" t="n">
-        <v>4.13577838470542</v>
+        <v>4.15197806502154</v>
       </c>
       <c r="G364" t="n">
-        <v>-2.74291984014665</v>
+        <v>-2.72672015983053</v>
       </c>
     </row>
     <row r="365">
@@ -11282,10 +11282,10 @@
         <v>9</v>
       </c>
       <c r="F365" t="n">
-        <v>3.96125487928293</v>
+        <v>3.95782175357504</v>
       </c>
       <c r="G365" t="n">
-        <v>-2.31589238147089</v>
+        <v>-2.31932550717878</v>
       </c>
     </row>
     <row r="366">
@@ -11305,10 +11305,10 @@
         <v>9</v>
       </c>
       <c r="F366" t="n">
-        <v>3.64109232769831</v>
+        <v>3.65058670143416</v>
       </c>
       <c r="G366" t="n">
-        <v>-2.25952879031411</v>
+        <v>-2.25003441657826</v>
       </c>
     </row>
     <row r="367">
@@ -11328,10 +11328,10 @@
         <v>9</v>
       </c>
       <c r="F367" t="n">
-        <v>5.83482944344704</v>
+        <v>5.78034682080925</v>
       </c>
       <c r="G367" t="n">
-        <v>-2.24554678571072</v>
+        <v>-2.30002940834851</v>
       </c>
     </row>
     <row r="368">
@@ -11351,10 +11351,10 @@
         <v>9</v>
       </c>
       <c r="F368" t="n">
-        <v>4.22585227272727</v>
+        <v>4.20049417578539</v>
       </c>
       <c r="G368" t="n">
-        <v>-2.14334528034937</v>
+        <v>-2.16870337729126</v>
       </c>
     </row>
     <row r="369">
@@ -11374,10 +11374,10 @@
         <v>9</v>
       </c>
       <c r="F369" t="n">
-        <v>6.07175712971481</v>
+        <v>6.06299212598425</v>
       </c>
       <c r="G369" t="n">
-        <v>-1.74213707041266</v>
+        <v>-1.75090207414322</v>
       </c>
     </row>
     <row r="370">
@@ -11397,10 +11397,10 @@
         <v>9</v>
       </c>
       <c r="F370" t="n">
-        <v>5.31436038913896</v>
+        <v>5.29667149059334</v>
       </c>
       <c r="G370" t="n">
-        <v>-1.77386687117243</v>
+        <v>-1.79155576971805</v>
       </c>
     </row>
     <row r="371">
@@ -11420,10 +11420,10 @@
         <v>9</v>
       </c>
       <c r="F371" t="n">
-        <v>4.54325761237313</v>
+        <v>4.53175846691575</v>
       </c>
       <c r="G371" t="n">
-        <v>-2.2704394276733</v>
+        <v>-2.28193857313068</v>
       </c>
     </row>
     <row r="372">
@@ -11443,10 +11443,10 @@
         <v>9</v>
       </c>
       <c r="F372" t="n">
-        <v>4.18968692449355</v>
+        <v>4.18390804597701</v>
       </c>
       <c r="G372" t="n">
-        <v>-2.12875048302346</v>
+        <v>-2.13452936154</v>
       </c>
     </row>
     <row r="373">
@@ -11466,10 +11466,10 @@
         <v>9</v>
       </c>
       <c r="F373" t="n">
-        <v>5.04166666666667</v>
+        <v>5.02909393183707</v>
       </c>
       <c r="G373" t="n">
-        <v>-2.63160066006601</v>
+        <v>-2.6441733948956</v>
       </c>
     </row>
     <row r="374">
@@ -11489,10 +11489,10 @@
         <v>9</v>
       </c>
       <c r="F374" t="n">
-        <v>5.8128078817734</v>
+        <v>5.79188481675393</v>
       </c>
       <c r="G374" t="n">
-        <v>-1.76697935226915</v>
+        <v>-1.78790241728863</v>
       </c>
     </row>
     <row r="375">
@@ -11512,10 +11512,10 @@
         <v>9</v>
       </c>
       <c r="F375" t="n">
-        <v>5.03003003003003</v>
+        <v>5.03759398496241</v>
       </c>
       <c r="G375" t="n">
-        <v>-3.31387055328217</v>
+        <v>-3.30630659834979</v>
       </c>
     </row>
     <row r="376">
@@ -11535,10 +11535,10 @@
         <v>9</v>
       </c>
       <c r="F376" t="n">
-        <v>5.3210092430677</v>
+        <v>5.30290456431535</v>
       </c>
       <c r="G376" t="n">
-        <v>-1.54501946506627</v>
+        <v>-1.56312414381862</v>
       </c>
     </row>
     <row r="377">
@@ -11558,10 +11558,10 @@
         <v>9</v>
       </c>
       <c r="F377" t="n">
-        <v>3.8714457719737</v>
+        <v>3.86535971888293</v>
       </c>
       <c r="G377" t="n">
-        <v>-3.1467230915817</v>
+        <v>-3.15280914467247</v>
       </c>
     </row>
     <row r="378">
@@ -11581,10 +11581,10 @@
         <v>9</v>
       </c>
       <c r="F378" t="n">
-        <v>6.62761314036297</v>
+        <v>6.60409751630995</v>
       </c>
       <c r="G378" t="n">
-        <v>-1.78739192891719</v>
+        <v>-1.81090755297022</v>
       </c>
     </row>
     <row r="379">
@@ -11604,10 +11604,10 @@
         <v>9</v>
       </c>
       <c r="F379" t="n">
-        <v>5.13388734995383</v>
+        <v>5.12725931390631</v>
       </c>
       <c r="G379" t="n">
-        <v>-1.81989966847895</v>
+        <v>-1.82652770452647</v>
       </c>
     </row>
     <row r="380">
@@ -11627,10 +11627,10 @@
         <v>9</v>
       </c>
       <c r="F380" t="n">
-        <v>4.77864583333333</v>
+        <v>4.76623376623377</v>
       </c>
       <c r="G380" t="n">
-        <v>-4.13507558038808</v>
+        <v>-4.14748764748765</v>
       </c>
     </row>
     <row r="381">
@@ -11650,10 +11650,10 @@
         <v>9</v>
       </c>
       <c r="F381" t="n">
-        <v>5.40575079872205</v>
+        <v>5.38922155688623</v>
       </c>
       <c r="G381" t="n">
-        <v>-2.37639820545794</v>
+        <v>-2.39292744729376</v>
       </c>
     </row>
     <row r="382">
@@ -11673,10 +11673,10 @@
         <v>9</v>
       </c>
       <c r="F382" t="n">
-        <v>4.80769230769231</v>
+        <v>4.79497354497355</v>
       </c>
       <c r="G382" t="n">
-        <v>-2.51093984315461</v>
+        <v>-2.52365860587337</v>
       </c>
     </row>
     <row r="383">
@@ -11696,10 +11696,10 @@
         <v>9</v>
       </c>
       <c r="F383" t="n">
-        <v>4.32513049962714</v>
+        <v>4.3178857249209</v>
       </c>
       <c r="G383" t="n">
-        <v>-2.38218657354359</v>
+        <v>-2.38943134824983</v>
       </c>
     </row>
     <row r="384">
@@ -11719,10 +11719,10 @@
         <v>9</v>
       </c>
       <c r="F384" t="n">
-        <v>4.74891705438793</v>
+        <v>4.74282967473161</v>
       </c>
       <c r="G384" t="n">
-        <v>-1.5943079416868</v>
+        <v>-1.60039532134312</v>
       </c>
     </row>
     <row r="385">
@@ -11742,10 +11742,10 @@
         <v>9</v>
       </c>
       <c r="F385" t="n">
-        <v>4.7867298578199</v>
+        <v>4.79582146248813</v>
       </c>
       <c r="G385" t="n">
-        <v>-2.26172829195983</v>
+        <v>-2.25263668729161</v>
       </c>
     </row>
     <row r="386">
@@ -11765,10 +11765,10 @@
         <v>9</v>
       </c>
       <c r="F386" t="n">
-        <v>5.08354573775135</v>
+        <v>5.07994905900665</v>
       </c>
       <c r="G386" t="n">
-        <v>-1.89711027570534</v>
+        <v>-1.90070695445004</v>
       </c>
     </row>
     <row r="387">
@@ -11788,10 +11788,10 @@
         <v>9</v>
       </c>
       <c r="F387" t="n">
-        <v>4.17952314165498</v>
+        <v>4.16433761878144</v>
       </c>
       <c r="G387" t="n">
-        <v>-2.95566999139223</v>
+        <v>-2.97085551426577</v>
       </c>
     </row>
     <row r="388">
@@ -11811,10 +11811,10 @@
         <v>9</v>
       </c>
       <c r="F388" t="n">
-        <v>4.05632618747373</v>
+        <v>4.05291894162117</v>
       </c>
       <c r="G388" t="n">
-        <v>-2.32023563932507</v>
+        <v>-2.32364288517763</v>
       </c>
     </row>
     <row r="389">
@@ -11834,10 +11834,10 @@
         <v>9</v>
       </c>
       <c r="F389" t="n">
-        <v>4.58952811893988</v>
+        <v>4.58656330749354</v>
       </c>
       <c r="G389" t="n">
-        <v>-1.66442008068109</v>
+        <v>-1.66738489212743</v>
       </c>
     </row>
     <row r="390">
@@ -11857,10 +11857,10 @@
         <v>9</v>
       </c>
       <c r="F390" t="n">
-        <v>5.06756756756757</v>
+        <v>5.0561797752809</v>
       </c>
       <c r="G390" t="n">
-        <v>-1.70236932285125</v>
+        <v>-1.71375711513792</v>
       </c>
     </row>
     <row r="391">
@@ -11880,10 +11880,10 @@
         <v>9</v>
       </c>
       <c r="F391" t="n">
-        <v>5.1314673452078</v>
+        <v>5.06700167504188</v>
       </c>
       <c r="G391" t="n">
-        <v>-7.06109098987733</v>
+        <v>-7.12555666004326</v>
       </c>
     </row>
     <row r="392">
@@ -11903,10 +11903,10 @@
         <v>9</v>
       </c>
       <c r="F392" t="n">
-        <v>4.79589560562124</v>
+        <v>4.78309232480534</v>
       </c>
       <c r="G392" t="n">
-        <v>-3.27035520100384</v>
+        <v>-3.28315848181974</v>
       </c>
     </row>
     <row r="393">
@@ -11926,10 +11926,10 @@
         <v>9</v>
       </c>
       <c r="F393" t="n">
-        <v>4.65549348230912</v>
+        <v>4.6279155868197</v>
       </c>
       <c r="G393" t="n">
-        <v>-2.6198793805501</v>
+        <v>-2.64745727603953</v>
       </c>
     </row>
     <row r="394">
@@ -11949,10 +11949,10 @@
         <v>9</v>
       </c>
       <c r="F394" t="n">
-        <v>3.80126708902968</v>
+        <v>3.78234903782349</v>
       </c>
       <c r="G394" t="n">
-        <v>-2.75244135086802</v>
+        <v>-2.77135940207421</v>
       </c>
     </row>
     <row r="395">
@@ -11972,10 +11972,10 @@
         <v>9</v>
       </c>
       <c r="F395" t="n">
-        <v>4.43271767810026</v>
+        <v>4.41872698579695</v>
       </c>
       <c r="G395" t="n">
-        <v>-2.4827598191555</v>
+        <v>-2.49675051145881</v>
       </c>
     </row>
     <row r="396">
@@ -11995,10 +11995,10 @@
         <v>9</v>
       </c>
       <c r="F396" t="n">
-        <v>5.95957851096908</v>
+        <v>5.94930160372478</v>
       </c>
       <c r="G396" t="n">
-        <v>-2.4139262203289</v>
+        <v>-2.4242031275732</v>
       </c>
     </row>
     <row r="397">
@@ -12018,10 +12018,10 @@
         <v>9</v>
       </c>
       <c r="F397" t="n">
-        <v>4.25649530127142</v>
+        <v>4.25884955752212</v>
       </c>
       <c r="G397" t="n">
-        <v>-4.05836057456006</v>
+        <v>-4.05600631830936</v>
       </c>
     </row>
     <row r="398">
@@ -12041,10 +12041,10 @@
         <v>9</v>
       </c>
       <c r="F398" t="n">
-        <v>3.42801175318315</v>
+        <v>3.41130604288499</v>
       </c>
       <c r="G398" t="n">
-        <v>-3.81191327024702</v>
+        <v>-3.82861898054519</v>
       </c>
     </row>
     <row r="399">
@@ -12064,10 +12064,10 @@
         <v>9</v>
       </c>
       <c r="F399" t="n">
-        <v>3.4430225472273</v>
+        <v>3.4367396593674</v>
       </c>
       <c r="G399" t="n">
-        <v>-2.53319772811688</v>
+        <v>-2.53948061597678</v>
       </c>
     </row>
     <row r="400">
@@ -12087,10 +12087,10 @@
         <v>9</v>
       </c>
       <c r="F400" t="n">
-        <v>5.72965702757229</v>
+        <v>5.71505232090153</v>
       </c>
       <c r="G400" t="n">
-        <v>-3.2489589904912</v>
+        <v>-3.26356369716196</v>
       </c>
     </row>
     <row r="401">
@@ -12110,10 +12110,10 @@
         <v>9</v>
       </c>
       <c r="F401" t="n">
-        <v>6.13496932515337</v>
+        <v>6.08365019011407</v>
       </c>
       <c r="G401" t="n">
-        <v>-6.91829399067558</v>
+        <v>-6.96961312571489</v>
       </c>
     </row>
     <row r="402">
@@ -12133,10 +12133,10 @@
         <v>9</v>
       </c>
       <c r="F402" t="n">
-        <v>5.07380073800738</v>
+        <v>5.05747126436782</v>
       </c>
       <c r="G402" t="n">
-        <v>-3.66495877317547</v>
+        <v>-3.68128824681503</v>
       </c>
     </row>
     <row r="403">
@@ -12156,10 +12156,10 @@
         <v>9</v>
       </c>
       <c r="F403" t="n">
-        <v>5.57714729887291</v>
+        <v>5.57931570762053</v>
       </c>
       <c r="G403" t="n">
-        <v>-6.52665618765641</v>
+        <v>-6.52448777890879</v>
       </c>
     </row>
     <row r="404">
@@ -12179,10 +12179,10 @@
         <v>9</v>
       </c>
       <c r="F404" t="n">
-        <v>3.94077448747153</v>
+        <v>3.93360618462938</v>
       </c>
       <c r="G404" t="n">
-        <v>-3.70762733901249</v>
+        <v>-3.71479564185464</v>
       </c>
     </row>
     <row r="405">
@@ -12202,10 +12202,10 @@
         <v>9</v>
       </c>
       <c r="F405" t="n">
-        <v>4.43559096945551</v>
+        <v>4.41915850754168</v>
       </c>
       <c r="G405" t="n">
-        <v>-2.75556637774865</v>
+        <v>-2.77199883966248</v>
       </c>
     </row>
     <row r="406">
@@ -12225,10 +12225,10 @@
         <v>9</v>
       </c>
       <c r="F406" t="n">
-        <v>5.69223347805113</v>
+        <v>5.68263905610402</v>
       </c>
       <c r="G406" t="n">
-        <v>-3.08547291449625</v>
+        <v>-3.09506733644336</v>
       </c>
     </row>
     <row r="407">
@@ -12248,10 +12248,10 @@
         <v>9</v>
       </c>
       <c r="F407" t="n">
-        <v>5.10189640532126</v>
+        <v>5.09720749381407</v>
       </c>
       <c r="G407" t="n">
-        <v>-3.29781909965741</v>
+        <v>-3.30250801116459</v>
       </c>
     </row>
     <row r="408">
@@ -12271,10 +12271,10 @@
         <v>9</v>
       </c>
       <c r="F408" t="n">
-        <v>4.72565354783108</v>
+        <v>4.71009305654975</v>
       </c>
       <c r="G408" t="n">
-        <v>-2.73598238064984</v>
+        <v>-2.75154287193117</v>
       </c>
     </row>
     <row r="409">
@@ -12294,10 +12294,10 @@
         <v>9</v>
       </c>
       <c r="F409" t="n">
-        <v>4.67411697528347</v>
+        <v>4.66992665036675</v>
       </c>
       <c r="G409" t="n">
-        <v>-3.03877457201702</v>
+        <v>-3.04296489693374</v>
       </c>
     </row>
     <row r="410">
@@ -12317,10 +12317,10 @@
         <v>9</v>
       </c>
       <c r="F410" t="n">
-        <v>3.01431801055011</v>
+        <v>3.00525920360631</v>
       </c>
       <c r="G410" t="n">
-        <v>-8.08798175154346</v>
+        <v>-8.09704055848727</v>
       </c>
     </row>
     <row r="411">
@@ -12340,10 +12340,10 @@
         <v>9</v>
       </c>
       <c r="F411" t="n">
-        <v>5.70068903980568</v>
+        <v>5.67901234567901</v>
       </c>
       <c r="G411" t="n">
-        <v>-2.62574617468524</v>
+        <v>-2.6474228688119</v>
       </c>
     </row>
     <row r="412">
@@ -12363,10 +12363,10 @@
         <v>9</v>
       </c>
       <c r="F412" t="n">
-        <v>5.43774931765694</v>
+        <v>5.41501149905917</v>
       </c>
       <c r="G412" t="n">
-        <v>-3.3053076665027</v>
+        <v>-3.32804548510047</v>
       </c>
     </row>
     <row r="413">
@@ -12386,10 +12386,10 @@
         <v>9</v>
       </c>
       <c r="F413" t="n">
-        <v>4.46607500715717</v>
+        <v>4.44951511694238</v>
       </c>
       <c r="G413" t="n">
-        <v>-3.92194211124511</v>
+        <v>-3.9385020014599</v>
       </c>
     </row>
     <row r="414">
@@ -12409,10 +12409,10 @@
         <v>9</v>
       </c>
       <c r="F414" t="n">
-        <v>4.21228428279829</v>
+        <v>4.19593345656192</v>
       </c>
       <c r="G414" t="n">
-        <v>-4.0704648850106</v>
+        <v>-4.08681571124697</v>
       </c>
     </row>
     <row r="415">
@@ -12432,10 +12432,10 @@
         <v>9</v>
       </c>
       <c r="F415" t="n">
-        <v>4.70706059088633</v>
+        <v>4.69061876247505</v>
       </c>
       <c r="G415" t="n">
-        <v>-3.49339498997927</v>
+        <v>-3.50983681839056</v>
       </c>
     </row>
     <row r="416">
@@ -12455,10 +12455,10 @@
         <v>9</v>
       </c>
       <c r="F416" t="n">
-        <v>2.96495956873315</v>
+        <v>2.95540032240731</v>
       </c>
       <c r="G416" t="n">
-        <v>-4.71011045927805</v>
+        <v>-4.7196697056039</v>
       </c>
     </row>
     <row r="417">
@@ -12501,10 +12501,10 @@
         <v>9</v>
       </c>
       <c r="F418" t="n">
-        <v>3.85510996119017</v>
+        <v>3.84416924664603</v>
       </c>
       <c r="G418" t="n">
-        <v>-3.98355061719644</v>
+        <v>-3.99449133174058</v>
       </c>
     </row>
     <row r="419">
@@ -12524,10 +12524,10 @@
         <v>9</v>
       </c>
       <c r="F419" t="n">
-        <v>4.97392699558765</v>
+        <v>4.9500998003992</v>
       </c>
       <c r="G419" t="n">
-        <v>-0.843683067305436</v>
+        <v>-0.86751026249388</v>
       </c>
     </row>
     <row r="420">
@@ -12547,10 +12547,10 @@
         <v>9</v>
       </c>
       <c r="F420" t="n">
-        <v>4.91904078704653</v>
+        <v>4.89596083231334</v>
       </c>
       <c r="G420" t="n">
-        <v>-3.03049866029028</v>
+        <v>-3.05357861502346</v>
       </c>
     </row>
     <row r="421">
@@ -12570,10 +12570,10 @@
         <v>9</v>
       </c>
       <c r="F421" t="n">
-        <v>4.60453844459132</v>
+        <v>4.58433867076113</v>
       </c>
       <c r="G421" t="n">
-        <v>-4.74294405710206</v>
+        <v>-4.76314383093225</v>
       </c>
     </row>
     <row r="422">
@@ -12593,10 +12593,10 @@
         <v>9</v>
       </c>
       <c r="F422" t="n">
-        <v>6.45161290322581</v>
+        <v>6.41925777331996</v>
       </c>
       <c r="G422" t="n">
-        <v>-2.78683903185534</v>
+        <v>-2.81919416176119</v>
       </c>
     </row>
   </sheetData>
